--- a/Autostockin/ยิงรับ 49.xlsx
+++ b/Autostockin/ยิงรับ 49.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Workstuff\my-work-python-script\Autostockin\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4943694-0FFF-450B-9597-B373197E870B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A62FAA0-8ACD-4C2C-87AA-B1CF95B1D8DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{47EFCF22-5A4D-4004-9D3D-F4E18B203E38}"/>
+    <workbookView xWindow="13275" yWindow="2040" windowWidth="21600" windowHeight="11295" xr2:uid="{47EFCF22-5A4D-4004-9D3D-F4E18B203E38}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4117" uniqueCount="2735">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4377" uniqueCount="2995">
   <si>
     <t xml:space="preserve">Bill Type: </t>
   </si>
@@ -8243,6 +8243,786 @@
   </si>
   <si>
     <t>+22880-476</t>
+  </si>
+  <si>
+    <t>+1400-1100</t>
+  </si>
+  <si>
+    <t>+4296-401</t>
+  </si>
+  <si>
+    <t>+11918-150</t>
+  </si>
+  <si>
+    <t>+4842-713</t>
+  </si>
+  <si>
+    <t>+4705-965</t>
+  </si>
+  <si>
+    <t>+3778-970</t>
+  </si>
+  <si>
+    <t>+1881-1254</t>
+  </si>
+  <si>
+    <t>+286-827</t>
+  </si>
+  <si>
+    <t>+2532-1244</t>
+  </si>
+  <si>
+    <t>+5244-636</t>
+  </si>
+  <si>
+    <t>+0011-1750</t>
+  </si>
+  <si>
+    <t>+0069-1728</t>
+  </si>
+  <si>
+    <t>+284-1525</t>
+  </si>
+  <si>
+    <t>+11921-150</t>
+  </si>
+  <si>
+    <t>+0013-1707</t>
+  </si>
+  <si>
+    <t>+4402-966</t>
+  </si>
+  <si>
+    <t>+423-1711</t>
+  </si>
+  <si>
+    <t>+5817-379</t>
+  </si>
+  <si>
+    <t>+284-827</t>
+  </si>
+  <si>
+    <t>+871-561</t>
+  </si>
+  <si>
+    <t>+1411-599</t>
+  </si>
+  <si>
+    <t>+1535-844</t>
+  </si>
+  <si>
+    <t>+2707-686</t>
+  </si>
+  <si>
+    <t>+3340-789</t>
+  </si>
+  <si>
+    <t>+1049-1050</t>
+  </si>
+  <si>
+    <t>+267-1558</t>
+  </si>
+  <si>
+    <t>+855-893</t>
+  </si>
+  <si>
+    <t>+3425-1088</t>
+  </si>
+  <si>
+    <t>+9478-725</t>
+  </si>
+  <si>
+    <t>+2289-939</t>
+  </si>
+  <si>
+    <t>+1817-760</t>
+  </si>
+  <si>
+    <t>+5914-647</t>
+  </si>
+  <si>
+    <t>+393-2071</t>
+  </si>
+  <si>
+    <t>+15848-85</t>
+  </si>
+  <si>
+    <t>+12109-645</t>
+  </si>
+  <si>
+    <t>+1198-1069</t>
+  </si>
+  <si>
+    <t>+4029-661</t>
+  </si>
+  <si>
+    <t>+5356-249</t>
+  </si>
+  <si>
+    <t>+1026-1187</t>
+  </si>
+  <si>
+    <t>+387-2115</t>
+  </si>
+  <si>
+    <t>+3369-707</t>
+  </si>
+  <si>
+    <t>+910-861</t>
+  </si>
+  <si>
+    <t>696-1282</t>
+  </si>
+  <si>
+    <t>+2933-736</t>
+  </si>
+  <si>
+    <t>+1320-1280</t>
+  </si>
+  <si>
+    <t>+6477-242</t>
+  </si>
+  <si>
+    <t>+5000-740</t>
+  </si>
+  <si>
+    <t>+3336-789</t>
+  </si>
+  <si>
+    <t>+2235-1206</t>
+  </si>
+  <si>
+    <t>+2173-702</t>
+  </si>
+  <si>
+    <t>+755-1438</t>
+  </si>
+  <si>
+    <t>+2299-872</t>
+  </si>
+  <si>
+    <t>+4838-744</t>
+  </si>
+  <si>
+    <t>+754-1438</t>
+  </si>
+  <si>
+    <t>+230-1477</t>
+  </si>
+  <si>
+    <t>+1028-1187</t>
+  </si>
+  <si>
+    <t>+24367-365</t>
+  </si>
+  <si>
+    <t>+658-1383</t>
+  </si>
+  <si>
+    <t>+7998-671</t>
+  </si>
+  <si>
+    <t>+19453-459</t>
+  </si>
+  <si>
+    <t>+115-2197</t>
+  </si>
+  <si>
+    <t>+1592-840</t>
+  </si>
+  <si>
+    <t>+42537-181</t>
+  </si>
+  <si>
+    <t>18160-112</t>
+  </si>
+  <si>
+    <t>+7997-671</t>
+  </si>
+  <si>
+    <t>+312-1463</t>
+  </si>
+  <si>
+    <t>+711-1415</t>
+  </si>
+  <si>
+    <t>+7866-498</t>
+  </si>
+  <si>
+    <t>+24369-365</t>
+  </si>
+  <si>
+    <t>1389-1216</t>
+  </si>
+  <si>
+    <t>+14844-639</t>
+  </si>
+  <si>
+    <t>+12344-321</t>
+  </si>
+  <si>
+    <t>+164-1528</t>
+  </si>
+  <si>
+    <t>+367-1403</t>
+  </si>
+  <si>
+    <t>+3372-937</t>
+  </si>
+  <si>
+    <t>+1894-1058</t>
+  </si>
+  <si>
+    <t>+1891-1058</t>
+  </si>
+  <si>
+    <t>+3337-789</t>
+  </si>
+  <si>
+    <t>+1538-981</t>
+  </si>
+  <si>
+    <t>+14776-163</t>
+  </si>
+  <si>
+    <t>+1778-854</t>
+  </si>
+  <si>
+    <t>+3662-932</t>
+  </si>
+  <si>
+    <t>+4286-657</t>
+  </si>
+  <si>
+    <t>+1407-599</t>
+  </si>
+  <si>
+    <t>+199-2198</t>
+  </si>
+  <si>
+    <t>+0011-1745</t>
+  </si>
+  <si>
+    <t>+3431-1088</t>
+  </si>
+  <si>
+    <t>+432-1469</t>
+  </si>
+  <si>
+    <t>+10674-627</t>
+  </si>
+  <si>
+    <t>+1654-574</t>
+  </si>
+  <si>
+    <t>+7487-339</t>
+  </si>
+  <si>
+    <t>+0053-1600</t>
+  </si>
+  <si>
+    <t>+13239-327</t>
+  </si>
+  <si>
+    <t>+5579-281</t>
+  </si>
+  <si>
+    <t>+378-1488</t>
+  </si>
+  <si>
+    <t>+146-1522</t>
+  </si>
+  <si>
+    <t>+1321-1263</t>
+  </si>
+  <si>
+    <t>+11494-134</t>
+  </si>
+  <si>
+    <t>+132-1733</t>
+  </si>
+  <si>
+    <t>+1538-844</t>
+  </si>
+  <si>
+    <t>+8357-635</t>
+  </si>
+  <si>
+    <t>+1153-591</t>
+  </si>
+  <si>
+    <t>+398-1563</t>
+  </si>
+  <si>
+    <t>+3346-926</t>
+  </si>
+  <si>
+    <t>+685-1404</t>
+  </si>
+  <si>
+    <t>2189-1212</t>
+  </si>
+  <si>
+    <t>+4278-401</t>
+  </si>
+  <si>
+    <t>+6370-664</t>
+  </si>
+  <si>
+    <t>+1013-1451</t>
+  </si>
+  <si>
+    <t>+2505-773</t>
+  </si>
+  <si>
+    <t>+15867-80</t>
+  </si>
+  <si>
+    <t>+1487-1177</t>
+  </si>
+  <si>
+    <t>+570-2142</t>
+  </si>
+  <si>
+    <t>+13627-240</t>
+  </si>
+  <si>
+    <t>+4564-745</t>
+  </si>
+  <si>
+    <t>+4562-745</t>
+  </si>
+  <si>
+    <t>+4565-745</t>
+  </si>
+  <si>
+    <t>+4568-745</t>
+  </si>
+  <si>
+    <t>+4569-745</t>
+  </si>
+  <si>
+    <t>+4574-745</t>
+  </si>
+  <si>
+    <t>+13626-240</t>
+  </si>
+  <si>
+    <t>+4567-745</t>
+  </si>
+  <si>
+    <t>+4573-745</t>
+  </si>
+  <si>
+    <t>+4576-745</t>
+  </si>
+  <si>
+    <t>+4572-745</t>
+  </si>
+  <si>
+    <t>+3464-543</t>
+  </si>
+  <si>
+    <t>+1941-853</t>
+  </si>
+  <si>
+    <t>+0096-1535</t>
+  </si>
+  <si>
+    <t>+2784-1095</t>
+  </si>
+  <si>
+    <t>+2750-914</t>
+  </si>
+  <si>
+    <t>+200-1506</t>
+  </si>
+  <si>
+    <t>+2428-754</t>
+  </si>
+  <si>
+    <t>751-1298</t>
+  </si>
+  <si>
+    <t>+27959-53</t>
+  </si>
+  <si>
+    <t>+1259-1093</t>
+  </si>
+  <si>
+    <t>+2621-310</t>
+  </si>
+  <si>
+    <t>+1297-771</t>
+  </si>
+  <si>
+    <t>+3415-413</t>
+  </si>
+  <si>
+    <t>+5006-669</t>
+  </si>
+  <si>
+    <t>+328-1482</t>
+  </si>
+  <si>
+    <t>+8389-315</t>
+  </si>
+  <si>
+    <t>+14835-335</t>
+  </si>
+  <si>
+    <t>+785-862</t>
+  </si>
+  <si>
+    <t>+654-1113</t>
+  </si>
+  <si>
+    <t>+17095-220</t>
+  </si>
+  <si>
+    <t>+14837-335</t>
+  </si>
+  <si>
+    <t>+14833-335</t>
+  </si>
+  <si>
+    <t>+8197-290</t>
+  </si>
+  <si>
+    <t>+40313-149</t>
+  </si>
+  <si>
+    <t>+13252-327</t>
+  </si>
+  <si>
+    <t>+21722-182</t>
+  </si>
+  <si>
+    <t>+479-998</t>
+  </si>
+  <si>
+    <t>+14841-335</t>
+  </si>
+  <si>
+    <t>+647-1271</t>
+  </si>
+  <si>
+    <t>+2491-1227</t>
+  </si>
+  <si>
+    <t>+497-2088</t>
+  </si>
+  <si>
+    <t>+833-1326</t>
+  </si>
+  <si>
+    <t>+14839-335</t>
+  </si>
+  <si>
+    <t>+1826-779</t>
+  </si>
+  <si>
+    <t>+1123-1276</t>
+  </si>
+  <si>
+    <t>+151-1519</t>
+  </si>
+  <si>
+    <t>+583-1313</t>
+  </si>
+  <si>
+    <t>+229-1726</t>
+  </si>
+  <si>
+    <t>+145-1502</t>
+  </si>
+  <si>
+    <t>+24368-365</t>
+  </si>
+  <si>
+    <t>+1173-1322</t>
+  </si>
+  <si>
+    <t>+0054-1749</t>
+  </si>
+  <si>
+    <t>+181-2190</t>
+  </si>
+  <si>
+    <t>+2175-702</t>
+  </si>
+  <si>
+    <t>+312-1390</t>
+  </si>
+  <si>
+    <t>+3335-789</t>
+  </si>
+  <si>
+    <t>+2088-1070</t>
+  </si>
+  <si>
+    <t>+263-1629</t>
+  </si>
+  <si>
+    <t>+837-1196</t>
+  </si>
+  <si>
+    <t>+3299-689</t>
+  </si>
+  <si>
+    <t>+3329-789</t>
+  </si>
+  <si>
+    <t>+1506-1307</t>
+  </si>
+  <si>
+    <t>+2653-660</t>
+  </si>
+  <si>
+    <t>+8705-233</t>
+  </si>
+  <si>
+    <t>+8702-337</t>
+  </si>
+  <si>
+    <t>+4167-256</t>
+  </si>
+  <si>
+    <t>+5222-350</t>
+  </si>
+  <si>
+    <t>+2802-991</t>
+  </si>
+  <si>
+    <t>+178-1703</t>
+  </si>
+  <si>
+    <t>+1278-1191</t>
+  </si>
+  <si>
+    <t>+2271-884</t>
+  </si>
+  <si>
+    <t>+391-596</t>
+  </si>
+  <si>
+    <t>+3342-340</t>
+  </si>
+  <si>
+    <t>+149-1545</t>
+  </si>
+  <si>
+    <t>+3501-695</t>
+  </si>
+  <si>
+    <t>+965-2031</t>
+  </si>
+  <si>
+    <t>+1537-552</t>
+  </si>
+  <si>
+    <t>+1533-552</t>
+  </si>
+  <si>
+    <t>+389-596</t>
+  </si>
+  <si>
+    <t>+672-1249</t>
+  </si>
+  <si>
+    <t>+4715-965</t>
+  </si>
+  <si>
+    <t>+168-1496</t>
+  </si>
+  <si>
+    <t>+15872-80</t>
+  </si>
+  <si>
+    <t>+387-596</t>
+  </si>
+  <si>
+    <t>+153-1517</t>
+  </si>
+  <si>
+    <t>+1010-888</t>
+  </si>
+  <si>
+    <t>+9576-487</t>
+  </si>
+  <si>
+    <t>+3003-784</t>
+  </si>
+  <si>
+    <t>+734-2096</t>
+  </si>
+  <si>
+    <t>+151-2171</t>
+  </si>
+  <si>
+    <t>+22913-207</t>
+  </si>
+  <si>
+    <t>+3171-368</t>
+  </si>
+  <si>
+    <t>+5820-379</t>
+  </si>
+  <si>
+    <t>+809-1167</t>
+  </si>
+  <si>
+    <t>+918-1175</t>
+  </si>
+  <si>
+    <t>+753-1438</t>
+  </si>
+  <si>
+    <t>+567-559</t>
+  </si>
+  <si>
+    <t>+199-2154</t>
+  </si>
+  <si>
+    <t>+398-1458</t>
+  </si>
+  <si>
+    <t>+807-2133</t>
+  </si>
+  <si>
+    <t>+431-1711</t>
+  </si>
+  <si>
+    <t>+1019-874</t>
+  </si>
+  <si>
+    <t>+4890-631</t>
+  </si>
+  <si>
+    <t>+12241-165</t>
+  </si>
+  <si>
+    <t>+872-1409</t>
+  </si>
+  <si>
+    <t>+10448-443</t>
+  </si>
+  <si>
+    <t>+2689-724</t>
+  </si>
+  <si>
+    <t>+1023-890</t>
+  </si>
+  <si>
+    <t>+2876-168</t>
+  </si>
+  <si>
+    <t>+2193-791</t>
+  </si>
+  <si>
+    <t>+2525-511</t>
+  </si>
+  <si>
+    <t>+0030-1583</t>
+  </si>
+  <si>
+    <t>+551-1329</t>
+  </si>
+  <si>
+    <t>+1534-552</t>
+  </si>
+  <si>
+    <t>+6256-648</t>
+  </si>
+  <si>
+    <t>+393-596</t>
+  </si>
+  <si>
+    <t>+3499-1014</t>
+  </si>
+  <si>
+    <t>+1624-1169</t>
+  </si>
+  <si>
+    <t>+13240-327</t>
+  </si>
+  <si>
+    <t>+1634-1169</t>
+  </si>
+  <si>
+    <t>+852-1326</t>
+  </si>
+  <si>
+    <t>+3093-733</t>
+  </si>
+  <si>
+    <t>+107-1540</t>
+  </si>
+  <si>
+    <t>4571-745</t>
+  </si>
+  <si>
+    <t>+4566-745</t>
+  </si>
+  <si>
+    <t>+0012-1747</t>
+  </si>
+  <si>
+    <t>+0018-1748</t>
+  </si>
+  <si>
+    <t>+1770-1234</t>
+  </si>
+  <si>
+    <t>+4561-745</t>
+  </si>
+  <si>
+    <t>+4563-745</t>
+  </si>
+  <si>
+    <t>+392-596</t>
+  </si>
+  <si>
+    <t>+4570-745</t>
+  </si>
+  <si>
+    <t>+2090-1220</t>
+  </si>
+  <si>
+    <t>+3337-282</t>
+  </si>
+  <si>
+    <t>1425-1233</t>
+  </si>
+  <si>
+    <t>+109-1540</t>
+  </si>
+  <si>
+    <t>+4560-745</t>
+  </si>
+  <si>
+    <t>+152-2170</t>
+  </si>
+  <si>
+    <t>+0052-2200</t>
+  </si>
+  <si>
+    <t>+932-2006</t>
+  </si>
+  <si>
+    <t>+307-802</t>
+  </si>
+  <si>
+    <t>+228-1726</t>
+  </si>
+  <si>
+    <t>+157-1526</t>
+  </si>
+  <si>
+    <t>+23595-192</t>
+  </si>
+  <si>
+    <t>+758-995</t>
   </si>
 </sst>
 </file>
@@ -8621,9 +9401,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B40E757-AF6D-418F-8CB6-C916F96CFF4A}">
-  <dimension ref="A1:G109"/>
+  <dimension ref="A1:G171"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A149" workbookViewId="0">
+      <selection activeCell="A171" sqref="A171"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -8632,7 +9414,10 @@
     <col min="7" max="7" width="12.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:5">
+    <row r="1" spans="1:5">
+      <c r="A1" s="1" t="s">
+        <v>2824</v>
+      </c>
       <c r="B1" s="1" t="s">
         <v>541</v>
       </c>
@@ -8647,176 +9432,912 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="52" spans="7:7">
+    <row r="2" spans="1:5">
+      <c r="A2" s="1" t="s">
+        <v>2825</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="1" t="s">
+        <v>2826</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="1" t="s">
+        <v>2827</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="1" t="s">
+        <v>2828</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="1" t="s">
+        <v>2829</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="1" t="s">
+        <v>2830</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="1" t="s">
+        <v>2831</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="1" t="s">
+        <v>2832</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="1" t="s">
+        <v>2833</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" s="1" t="s">
+        <v>2834</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" s="1" t="s">
+        <v>2835</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" s="1" t="s">
+        <v>2836</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" s="1" t="s">
+        <v>2837</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" s="1" t="s">
+        <v>2838</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" s="1" t="s">
+        <v>2839</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1">
+      <c r="A17" s="1" t="s">
+        <v>2840</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1">
+      <c r="A18" s="1" t="s">
+        <v>2841</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1">
+      <c r="A19" s="1" t="s">
+        <v>2842</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1">
+      <c r="A20" s="1" t="s">
+        <v>2843</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1">
+      <c r="A21" s="1" t="s">
+        <v>2844</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1">
+      <c r="A22" s="1" t="s">
+        <v>2845</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1">
+      <c r="A23" s="1" t="s">
+        <v>2846</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1">
+      <c r="A24" s="1" t="s">
+        <v>2847</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1">
+      <c r="A25" s="1" t="s">
+        <v>2848</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1">
+      <c r="A26" s="1" t="s">
+        <v>2849</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1">
+      <c r="A27" s="1" t="s">
+        <v>2850</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1">
+      <c r="A28" s="1" t="s">
+        <v>2851</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1">
+      <c r="A29" s="1" t="s">
+        <v>2852</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1">
+      <c r="A30" s="1" t="s">
+        <v>2853</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1">
+      <c r="A31" s="1" t="s">
+        <v>2854</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1">
+      <c r="A32" s="1" t="s">
+        <v>2855</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1">
+      <c r="A33" s="1" t="s">
+        <v>2856</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1">
+      <c r="A34" s="1" t="s">
+        <v>2857</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1">
+      <c r="A35" s="1" t="s">
+        <v>2858</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1">
+      <c r="A36" s="1" t="s">
+        <v>2859</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1">
+      <c r="A37" s="1" t="s">
+        <v>2860</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1">
+      <c r="A38" s="1" t="s">
+        <v>2861</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1">
+      <c r="A39" s="1" t="s">
+        <v>2862</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1">
+      <c r="A40" s="1" t="s">
+        <v>2863</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1">
+      <c r="A41" s="1" t="s">
+        <v>2864</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1">
+      <c r="A42" s="1" t="s">
+        <v>2865</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1">
+      <c r="A43" s="1" t="s">
+        <v>2866</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1">
+      <c r="A44" s="1" t="s">
+        <v>2867</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1">
+      <c r="A45" s="1" t="s">
+        <v>2868</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1">
+      <c r="A46" s="1" t="s">
+        <v>2869</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1">
+      <c r="A47" s="1" t="s">
+        <v>2870</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1">
+      <c r="A48" s="1" t="s">
+        <v>2871</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7">
+      <c r="A49" s="1" t="s">
+        <v>2872</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7">
+      <c r="A50" s="1" t="s">
+        <v>2873</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7">
+      <c r="A51" s="1" t="s">
+        <v>2874</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7">
+      <c r="A52" s="1" t="s">
+        <v>2875</v>
+      </c>
       <c r="G52" s="1"/>
     </row>
-    <row r="53" spans="7:7">
+    <row r="53" spans="1:7">
+      <c r="A53" s="1" t="s">
+        <v>2876</v>
+      </c>
       <c r="G53" s="1"/>
     </row>
-    <row r="54" spans="7:7">
+    <row r="54" spans="1:7">
+      <c r="A54" s="1" t="s">
+        <v>2877</v>
+      </c>
       <c r="G54" s="1"/>
     </row>
-    <row r="55" spans="7:7">
+    <row r="55" spans="1:7">
+      <c r="A55" s="1" t="s">
+        <v>2878</v>
+      </c>
       <c r="G55" s="1"/>
     </row>
-    <row r="56" spans="7:7">
+    <row r="56" spans="1:7">
+      <c r="A56" s="1" t="s">
+        <v>2879</v>
+      </c>
       <c r="G56" s="1"/>
     </row>
-    <row r="57" spans="7:7">
+    <row r="57" spans="1:7">
+      <c r="A57" s="1" t="s">
+        <v>2880</v>
+      </c>
       <c r="G57" s="1"/>
     </row>
-    <row r="58" spans="7:7">
+    <row r="58" spans="1:7">
+      <c r="A58" s="1" t="s">
+        <v>2881</v>
+      </c>
       <c r="G58" s="1"/>
     </row>
-    <row r="59" spans="7:7">
+    <row r="59" spans="1:7">
+      <c r="A59" s="1" t="s">
+        <v>2882</v>
+      </c>
       <c r="G59" s="1"/>
     </row>
-    <row r="60" spans="7:7">
+    <row r="60" spans="1:7">
+      <c r="A60" s="1" t="s">
+        <v>2883</v>
+      </c>
       <c r="G60" s="1"/>
     </row>
-    <row r="61" spans="7:7">
+    <row r="61" spans="1:7">
+      <c r="A61" s="1" t="s">
+        <v>2884</v>
+      </c>
       <c r="G61" s="1"/>
     </row>
-    <row r="62" spans="7:7">
+    <row r="62" spans="1:7">
+      <c r="A62" s="1" t="s">
+        <v>2885</v>
+      </c>
       <c r="G62" s="1"/>
     </row>
-    <row r="63" spans="7:7">
+    <row r="63" spans="1:7">
+      <c r="A63" s="1" t="s">
+        <v>2886</v>
+      </c>
       <c r="G63" s="1"/>
     </row>
-    <row r="64" spans="7:7">
+    <row r="64" spans="1:7">
+      <c r="A64" s="1" t="s">
+        <v>2887</v>
+      </c>
       <c r="G64" s="1"/>
     </row>
-    <row r="65" spans="7:7">
+    <row r="65" spans="1:7">
+      <c r="A65" s="1" t="s">
+        <v>2888</v>
+      </c>
       <c r="G65" s="1"/>
     </row>
-    <row r="66" spans="7:7">
+    <row r="66" spans="1:7">
+      <c r="A66" s="1" t="s">
+        <v>2889</v>
+      </c>
       <c r="G66" s="1"/>
     </row>
-    <row r="67" spans="7:7">
+    <row r="67" spans="1:7">
+      <c r="A67" s="1" t="s">
+        <v>2890</v>
+      </c>
       <c r="G67" s="1"/>
     </row>
-    <row r="68" spans="7:7">
+    <row r="68" spans="1:7">
+      <c r="A68" s="1" t="s">
+        <v>2891</v>
+      </c>
       <c r="G68" s="1"/>
     </row>
-    <row r="69" spans="7:7">
+    <row r="69" spans="1:7">
+      <c r="A69" s="1" t="s">
+        <v>2892</v>
+      </c>
       <c r="G69" s="1"/>
     </row>
-    <row r="70" spans="7:7">
+    <row r="70" spans="1:7">
+      <c r="A70" s="1" t="s">
+        <v>2893</v>
+      </c>
       <c r="G70" s="1"/>
     </row>
-    <row r="72" spans="7:7">
+    <row r="71" spans="1:7">
+      <c r="A71" s="1" t="s">
+        <v>2894</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7">
+      <c r="A72" s="1" t="s">
+        <v>2895</v>
+      </c>
       <c r="G72" s="1"/>
     </row>
-    <row r="73" spans="7:7">
+    <row r="73" spans="1:7">
+      <c r="A73" s="1" t="s">
+        <v>2896</v>
+      </c>
       <c r="G73" s="1"/>
     </row>
-    <row r="74" spans="7:7">
+    <row r="74" spans="1:7">
+      <c r="A74" s="1" t="s">
+        <v>2897</v>
+      </c>
       <c r="G74" s="1"/>
     </row>
-    <row r="75" spans="7:7">
+    <row r="75" spans="1:7">
+      <c r="A75" s="1" t="s">
+        <v>2898</v>
+      </c>
       <c r="G75" s="1"/>
     </row>
-    <row r="76" spans="7:7">
+    <row r="76" spans="1:7">
+      <c r="A76" s="1" t="s">
+        <v>2899</v>
+      </c>
       <c r="G76" s="1"/>
     </row>
-    <row r="77" spans="7:7">
+    <row r="77" spans="1:7">
+      <c r="A77" s="1" t="s">
+        <v>2900</v>
+      </c>
       <c r="G77" s="1"/>
     </row>
-    <row r="78" spans="7:7">
+    <row r="78" spans="1:7">
+      <c r="A78" s="1" t="s">
+        <v>2901</v>
+      </c>
       <c r="G78" s="1"/>
     </row>
-    <row r="79" spans="7:7">
+    <row r="79" spans="1:7">
+      <c r="A79" s="1" t="s">
+        <v>2902</v>
+      </c>
       <c r="G79" s="1"/>
     </row>
-    <row r="80" spans="7:7">
+    <row r="80" spans="1:7">
+      <c r="A80" s="1" t="s">
+        <v>2903</v>
+      </c>
       <c r="G80" s="1"/>
     </row>
-    <row r="81" spans="7:7">
+    <row r="81" spans="1:7">
+      <c r="A81" s="1" t="s">
+        <v>2904</v>
+      </c>
       <c r="G81" s="1"/>
     </row>
-    <row r="82" spans="7:7">
+    <row r="82" spans="1:7">
+      <c r="A82" s="1" t="s">
+        <v>2905</v>
+      </c>
       <c r="G82" s="1"/>
     </row>
-    <row r="83" spans="7:7">
+    <row r="83" spans="1:7">
+      <c r="A83" s="1" t="s">
+        <v>2906</v>
+      </c>
       <c r="G83" s="1"/>
     </row>
-    <row r="84" spans="7:7">
+    <row r="84" spans="1:7">
+      <c r="A84" s="1" t="s">
+        <v>2907</v>
+      </c>
       <c r="G84" s="1"/>
     </row>
-    <row r="85" spans="7:7">
+    <row r="85" spans="1:7">
+      <c r="A85" s="1" t="s">
+        <v>2908</v>
+      </c>
       <c r="G85" s="1"/>
     </row>
-    <row r="86" spans="7:7">
+    <row r="86" spans="1:7">
+      <c r="A86" s="1" t="s">
+        <v>2909</v>
+      </c>
       <c r="G86" s="1"/>
     </row>
-    <row r="87" spans="7:7">
+    <row r="87" spans="1:7">
+      <c r="A87" s="1" t="s">
+        <v>2910</v>
+      </c>
       <c r="G87" s="1"/>
     </row>
-    <row r="88" spans="7:7">
+    <row r="88" spans="1:7">
+      <c r="A88" s="1" t="s">
+        <v>2911</v>
+      </c>
       <c r="G88" s="1"/>
     </row>
-    <row r="89" spans="7:7">
+    <row r="89" spans="1:7">
+      <c r="A89" s="1" t="s">
+        <v>2912</v>
+      </c>
       <c r="G89" s="1"/>
     </row>
-    <row r="90" spans="7:7">
+    <row r="90" spans="1:7">
+      <c r="A90" s="1" t="s">
+        <v>2913</v>
+      </c>
       <c r="G90" s="1"/>
     </row>
-    <row r="91" spans="7:7">
+    <row r="91" spans="1:7">
+      <c r="A91" s="1" t="s">
+        <v>2914</v>
+      </c>
       <c r="G91" s="1"/>
     </row>
-    <row r="92" spans="7:7">
+    <row r="92" spans="1:7">
+      <c r="A92" s="1" t="s">
+        <v>2915</v>
+      </c>
       <c r="G92" s="1"/>
     </row>
-    <row r="93" spans="7:7">
+    <row r="93" spans="1:7">
+      <c r="A93" s="1" t="s">
+        <v>2916</v>
+      </c>
       <c r="G93" s="1"/>
     </row>
-    <row r="94" spans="7:7">
+    <row r="94" spans="1:7">
+      <c r="A94" s="1" t="s">
+        <v>2917</v>
+      </c>
       <c r="G94" s="1"/>
     </row>
-    <row r="95" spans="7:7">
+    <row r="95" spans="1:7">
+      <c r="A95" s="1" t="s">
+        <v>2918</v>
+      </c>
       <c r="G95" s="1"/>
     </row>
-    <row r="96" spans="7:7">
+    <row r="96" spans="1:7">
+      <c r="A96" s="1" t="s">
+        <v>2919</v>
+      </c>
       <c r="G96" s="1"/>
     </row>
-    <row r="97" spans="7:7">
+    <row r="97" spans="1:7">
+      <c r="A97" s="1" t="s">
+        <v>2920</v>
+      </c>
       <c r="G97" s="1"/>
     </row>
-    <row r="98" spans="7:7">
+    <row r="98" spans="1:7">
+      <c r="A98" s="1" t="s">
+        <v>2921</v>
+      </c>
       <c r="G98" s="1"/>
     </row>
-    <row r="99" spans="7:7">
+    <row r="99" spans="1:7">
+      <c r="A99" s="1" t="s">
+        <v>2922</v>
+      </c>
       <c r="G99" s="1"/>
     </row>
-    <row r="100" spans="7:7">
+    <row r="100" spans="1:7">
+      <c r="A100" s="1" t="s">
+        <v>2923</v>
+      </c>
       <c r="G100" s="1"/>
     </row>
-    <row r="101" spans="7:7">
+    <row r="101" spans="1:7">
+      <c r="A101" s="1" t="s">
+        <v>2924</v>
+      </c>
       <c r="G101" s="1"/>
     </row>
-    <row r="102" spans="7:7">
+    <row r="102" spans="1:7">
+      <c r="A102" s="1" t="s">
+        <v>2925</v>
+      </c>
       <c r="G102" s="1"/>
     </row>
-    <row r="103" spans="7:7">
+    <row r="103" spans="1:7">
+      <c r="A103" s="1" t="s">
+        <v>2926</v>
+      </c>
       <c r="G103" s="1"/>
     </row>
-    <row r="104" spans="7:7">
+    <row r="104" spans="1:7">
+      <c r="A104" s="1" t="s">
+        <v>2927</v>
+      </c>
       <c r="G104" s="1"/>
     </row>
-    <row r="105" spans="7:7">
+    <row r="105" spans="1:7">
+      <c r="A105" s="1" t="s">
+        <v>2928</v>
+      </c>
       <c r="G105" s="1"/>
     </row>
-    <row r="106" spans="7:7">
+    <row r="106" spans="1:7">
+      <c r="A106" s="1" t="s">
+        <v>2929</v>
+      </c>
       <c r="G106" s="1"/>
     </row>
-    <row r="107" spans="7:7">
+    <row r="107" spans="1:7">
+      <c r="A107" s="1" t="s">
+        <v>2930</v>
+      </c>
       <c r="G107" s="1"/>
     </row>
-    <row r="108" spans="7:7">
+    <row r="108" spans="1:7">
+      <c r="A108" s="1" t="s">
+        <v>2931</v>
+      </c>
       <c r="G108" s="1"/>
     </row>
-    <row r="109" spans="7:7">
+    <row r="109" spans="1:7">
+      <c r="A109" s="1" t="s">
+        <v>2932</v>
+      </c>
       <c r="G109" s="1"/>
+    </row>
+    <row r="110" spans="1:7">
+      <c r="A110" s="1" t="s">
+        <v>2933</v>
+      </c>
+    </row>
+    <row r="111" spans="1:7">
+      <c r="A111" s="1" t="s">
+        <v>2934</v>
+      </c>
+    </row>
+    <row r="112" spans="1:7">
+      <c r="A112" s="1" t="s">
+        <v>2935</v>
+      </c>
+    </row>
+    <row r="113" spans="1:1">
+      <c r="A113" s="1" t="s">
+        <v>2936</v>
+      </c>
+    </row>
+    <row r="114" spans="1:1">
+      <c r="A114" s="1" t="s">
+        <v>2937</v>
+      </c>
+    </row>
+    <row r="115" spans="1:1">
+      <c r="A115" s="1" t="s">
+        <v>2938</v>
+      </c>
+    </row>
+    <row r="116" spans="1:1">
+      <c r="A116" s="1" t="s">
+        <v>2939</v>
+      </c>
+    </row>
+    <row r="117" spans="1:1">
+      <c r="A117" s="1" t="s">
+        <v>2940</v>
+      </c>
+    </row>
+    <row r="118" spans="1:1">
+      <c r="A118" s="1" t="s">
+        <v>2941</v>
+      </c>
+    </row>
+    <row r="119" spans="1:1">
+      <c r="A119" s="1" t="s">
+        <v>2942</v>
+      </c>
+    </row>
+    <row r="120" spans="1:1">
+      <c r="A120" s="1" t="s">
+        <v>2943</v>
+      </c>
+    </row>
+    <row r="121" spans="1:1">
+      <c r="A121" s="1" t="s">
+        <v>2944</v>
+      </c>
+    </row>
+    <row r="122" spans="1:1">
+      <c r="A122" s="1" t="s">
+        <v>2945</v>
+      </c>
+    </row>
+    <row r="123" spans="1:1">
+      <c r="A123" s="1" t="s">
+        <v>2946</v>
+      </c>
+    </row>
+    <row r="124" spans="1:1">
+      <c r="A124" s="1" t="s">
+        <v>2947</v>
+      </c>
+    </row>
+    <row r="125" spans="1:1">
+      <c r="A125" s="1" t="s">
+        <v>2948</v>
+      </c>
+    </row>
+    <row r="126" spans="1:1">
+      <c r="A126" s="1" t="s">
+        <v>2949</v>
+      </c>
+    </row>
+    <row r="127" spans="1:1">
+      <c r="A127" s="1" t="s">
+        <v>2950</v>
+      </c>
+    </row>
+    <row r="128" spans="1:1">
+      <c r="A128" s="1" t="s">
+        <v>2951</v>
+      </c>
+    </row>
+    <row r="129" spans="1:1">
+      <c r="A129" s="1" t="s">
+        <v>2952</v>
+      </c>
+    </row>
+    <row r="130" spans="1:1">
+      <c r="A130" s="1" t="s">
+        <v>2953</v>
+      </c>
+    </row>
+    <row r="131" spans="1:1">
+      <c r="A131" s="1" t="s">
+        <v>2954</v>
+      </c>
+    </row>
+    <row r="132" spans="1:1">
+      <c r="A132" s="1" t="s">
+        <v>2955</v>
+      </c>
+    </row>
+    <row r="133" spans="1:1">
+      <c r="A133" s="1" t="s">
+        <v>2956</v>
+      </c>
+    </row>
+    <row r="134" spans="1:1">
+      <c r="A134" s="1" t="s">
+        <v>2957</v>
+      </c>
+    </row>
+    <row r="135" spans="1:1">
+      <c r="A135" s="1" t="s">
+        <v>2958</v>
+      </c>
+    </row>
+    <row r="136" spans="1:1">
+      <c r="A136" s="1" t="s">
+        <v>2959</v>
+      </c>
+    </row>
+    <row r="137" spans="1:1">
+      <c r="A137" s="1" t="s">
+        <v>2960</v>
+      </c>
+    </row>
+    <row r="138" spans="1:1">
+      <c r="A138" s="1" t="s">
+        <v>2961</v>
+      </c>
+    </row>
+    <row r="139" spans="1:1">
+      <c r="A139" s="1" t="s">
+        <v>2962</v>
+      </c>
+    </row>
+    <row r="140" spans="1:1">
+      <c r="A140" s="1" t="s">
+        <v>2963</v>
+      </c>
+    </row>
+    <row r="141" spans="1:1">
+      <c r="A141" s="1" t="s">
+        <v>2964</v>
+      </c>
+    </row>
+    <row r="142" spans="1:1">
+      <c r="A142" s="1" t="s">
+        <v>2965</v>
+      </c>
+    </row>
+    <row r="143" spans="1:1">
+      <c r="A143" s="1" t="s">
+        <v>2966</v>
+      </c>
+    </row>
+    <row r="144" spans="1:1">
+      <c r="A144" s="1" t="s">
+        <v>2967</v>
+      </c>
+    </row>
+    <row r="145" spans="1:1">
+      <c r="A145" s="1" t="s">
+        <v>2968</v>
+      </c>
+    </row>
+    <row r="146" spans="1:1">
+      <c r="A146" s="1" t="s">
+        <v>2969</v>
+      </c>
+    </row>
+    <row r="147" spans="1:1">
+      <c r="A147" s="1" t="s">
+        <v>2970</v>
+      </c>
+    </row>
+    <row r="148" spans="1:1">
+      <c r="A148" s="1" t="s">
+        <v>2971</v>
+      </c>
+    </row>
+    <row r="149" spans="1:1">
+      <c r="A149" s="1" t="s">
+        <v>2972</v>
+      </c>
+    </row>
+    <row r="150" spans="1:1">
+      <c r="A150" s="1" t="s">
+        <v>2973</v>
+      </c>
+    </row>
+    <row r="151" spans="1:1">
+      <c r="A151" s="1" t="s">
+        <v>2974</v>
+      </c>
+    </row>
+    <row r="152" spans="1:1">
+      <c r="A152" s="1" t="s">
+        <v>2975</v>
+      </c>
+    </row>
+    <row r="153" spans="1:1">
+      <c r="A153" s="1" t="s">
+        <v>2976</v>
+      </c>
+    </row>
+    <row r="154" spans="1:1">
+      <c r="A154" s="1" t="s">
+        <v>2977</v>
+      </c>
+    </row>
+    <row r="155" spans="1:1">
+      <c r="A155" s="1" t="s">
+        <v>2978</v>
+      </c>
+    </row>
+    <row r="156" spans="1:1">
+      <c r="A156" s="1" t="s">
+        <v>2979</v>
+      </c>
+    </row>
+    <row r="157" spans="1:1">
+      <c r="A157" s="1" t="s">
+        <v>2980</v>
+      </c>
+    </row>
+    <row r="158" spans="1:1">
+      <c r="A158" s="1" t="s">
+        <v>2981</v>
+      </c>
+    </row>
+    <row r="159" spans="1:1">
+      <c r="A159" s="1" t="s">
+        <v>2982</v>
+      </c>
+    </row>
+    <row r="160" spans="1:1">
+      <c r="A160" s="1" t="s">
+        <v>2983</v>
+      </c>
+    </row>
+    <row r="161" spans="1:1">
+      <c r="A161" s="1" t="s">
+        <v>2984</v>
+      </c>
+    </row>
+    <row r="162" spans="1:1">
+      <c r="A162" s="1" t="s">
+        <v>2985</v>
+      </c>
+    </row>
+    <row r="163" spans="1:1">
+      <c r="A163" s="1" t="s">
+        <v>2986</v>
+      </c>
+    </row>
+    <row r="164" spans="1:1">
+      <c r="A164" s="1" t="s">
+        <v>2987</v>
+      </c>
+    </row>
+    <row r="165" spans="1:1">
+      <c r="A165" s="1" t="s">
+        <v>2988</v>
+      </c>
+    </row>
+    <row r="166" spans="1:1">
+      <c r="A166" s="1" t="s">
+        <v>2989</v>
+      </c>
+    </row>
+    <row r="167" spans="1:1">
+      <c r="A167" s="1" t="s">
+        <v>2990</v>
+      </c>
+    </row>
+    <row r="168" spans="1:1">
+      <c r="A168" s="1" t="s">
+        <v>2991</v>
+      </c>
+    </row>
+    <row r="169" spans="1:1">
+      <c r="A169" s="1" t="s">
+        <v>2992</v>
+      </c>
+    </row>
+    <row r="170" spans="1:1">
+      <c r="A170" s="1" t="s">
+        <v>2993</v>
+      </c>
+    </row>
+    <row r="171" spans="1:1">
+      <c r="A171" s="1" t="s">
+        <v>2994</v>
+      </c>
     </row>
   </sheetData>
   <autoFilter ref="C1:E250" xr:uid="{1B40E757-AF6D-418F-8CB6-C916F96CFF4A}"/>
@@ -19347,8 +20868,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{37C21679-A84C-4371-A1C5-AF880A10BEAA}">
   <dimension ref="A1:R491"/>
   <sheetViews>
-    <sheetView topLeftCell="O144" workbookViewId="0">
-      <selection activeCell="R181" sqref="R181"/>
+    <sheetView topLeftCell="O159" workbookViewId="0">
+      <selection activeCell="R181" sqref="R181:R269"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -24799,6 +26320,9 @@
       <c r="Q181" s="5" t="s">
         <v>2524</v>
       </c>
+      <c r="R181" s="5" t="s">
+        <v>2735</v>
+      </c>
     </row>
     <row r="182" spans="5:18">
       <c r="E182" s="1" t="s">
@@ -24813,6 +26337,9 @@
       <c r="Q182" s="5" t="s">
         <v>2525</v>
       </c>
+      <c r="R182" s="5" t="s">
+        <v>2736</v>
+      </c>
     </row>
     <row r="183" spans="5:18">
       <c r="E183" s="1" t="s">
@@ -24827,6 +26354,9 @@
       <c r="Q183" s="5" t="s">
         <v>2526</v>
       </c>
+      <c r="R183" s="5" t="s">
+        <v>2737</v>
+      </c>
     </row>
     <row r="184" spans="5:18">
       <c r="E184" s="1" t="s">
@@ -24841,6 +26371,9 @@
       <c r="Q184" s="5" t="s">
         <v>2527</v>
       </c>
+      <c r="R184" s="5" t="s">
+        <v>2738</v>
+      </c>
     </row>
     <row r="185" spans="5:18">
       <c r="E185" s="1" t="s">
@@ -24855,6 +26388,9 @@
       <c r="Q185" s="5" t="s">
         <v>2528</v>
       </c>
+      <c r="R185" s="5" t="s">
+        <v>2739</v>
+      </c>
     </row>
     <row r="186" spans="5:18">
       <c r="E186" s="1" t="s">
@@ -24869,6 +26405,9 @@
       <c r="Q186" s="5" t="s">
         <v>2529</v>
       </c>
+      <c r="R186" s="5" t="s">
+        <v>2740</v>
+      </c>
     </row>
     <row r="187" spans="5:18">
       <c r="E187" s="1" t="s">
@@ -24883,6 +26422,9 @@
       <c r="Q187" s="5" t="s">
         <v>2530</v>
       </c>
+      <c r="R187" s="5" t="s">
+        <v>2741</v>
+      </c>
     </row>
     <row r="188" spans="5:18">
       <c r="E188" s="1" t="s">
@@ -24897,6 +26439,9 @@
       <c r="Q188" s="5" t="s">
         <v>2531</v>
       </c>
+      <c r="R188" s="5" t="s">
+        <v>2742</v>
+      </c>
     </row>
     <row r="189" spans="5:18">
       <c r="E189" s="1" t="s">
@@ -24911,6 +26456,9 @@
       <c r="Q189" s="5" t="s">
         <v>2532</v>
       </c>
+      <c r="R189" s="5" t="s">
+        <v>2743</v>
+      </c>
     </row>
     <row r="190" spans="5:18">
       <c r="E190" s="1" t="s">
@@ -24925,6 +26473,9 @@
       <c r="Q190" s="5" t="s">
         <v>2533</v>
       </c>
+      <c r="R190" s="5" t="s">
+        <v>2744</v>
+      </c>
     </row>
     <row r="191" spans="5:18">
       <c r="E191" s="1" t="s">
@@ -24939,6 +26490,9 @@
       <c r="Q191" s="5" t="s">
         <v>2534</v>
       </c>
+      <c r="R191" s="5" t="s">
+        <v>2745</v>
+      </c>
     </row>
     <row r="192" spans="5:18">
       <c r="E192" s="1" t="s">
@@ -24953,8 +26507,11 @@
       <c r="Q192" s="5" t="s">
         <v>2535</v>
       </c>
-    </row>
-    <row r="193" spans="5:17">
+      <c r="R192" s="5" t="s">
+        <v>2746</v>
+      </c>
+    </row>
+    <row r="193" spans="5:18">
       <c r="E193" s="1" t="s">
         <v>823</v>
       </c>
@@ -24967,8 +26524,11 @@
       <c r="Q193" s="5" t="s">
         <v>2536</v>
       </c>
-    </row>
-    <row r="194" spans="5:17">
+      <c r="R193" s="5" t="s">
+        <v>2747</v>
+      </c>
+    </row>
+    <row r="194" spans="5:18">
       <c r="E194" s="1" t="s">
         <v>824</v>
       </c>
@@ -24981,8 +26541,11 @@
       <c r="Q194" s="5" t="s">
         <v>2537</v>
       </c>
-    </row>
-    <row r="195" spans="5:17">
+      <c r="R194" s="5" t="s">
+        <v>2748</v>
+      </c>
+    </row>
+    <row r="195" spans="5:18">
       <c r="E195" s="1" t="s">
         <v>825</v>
       </c>
@@ -24995,8 +26558,11 @@
       <c r="Q195" s="5" t="s">
         <v>2538</v>
       </c>
-    </row>
-    <row r="196" spans="5:17">
+      <c r="R195" s="5" t="s">
+        <v>2749</v>
+      </c>
+    </row>
+    <row r="196" spans="5:18">
       <c r="E196" s="1" t="s">
         <v>826</v>
       </c>
@@ -25009,8 +26575,11 @@
       <c r="Q196" s="5" t="s">
         <v>2539</v>
       </c>
-    </row>
-    <row r="197" spans="5:17">
+      <c r="R196" s="5" t="s">
+        <v>2750</v>
+      </c>
+    </row>
+    <row r="197" spans="5:18">
       <c r="E197" s="1" t="s">
         <v>827</v>
       </c>
@@ -25023,8 +26592,11 @@
       <c r="Q197" s="5" t="s">
         <v>2540</v>
       </c>
-    </row>
-    <row r="198" spans="5:17">
+      <c r="R197" s="5" t="s">
+        <v>2751</v>
+      </c>
+    </row>
+    <row r="198" spans="5:18">
       <c r="E198" s="1" t="s">
         <v>828</v>
       </c>
@@ -25034,8 +26606,11 @@
       <c r="Q198" s="5" t="s">
         <v>2541</v>
       </c>
-    </row>
-    <row r="199" spans="5:17">
+      <c r="R198" s="5" t="s">
+        <v>2752</v>
+      </c>
+    </row>
+    <row r="199" spans="5:18">
       <c r="E199" s="1" t="s">
         <v>829</v>
       </c>
@@ -25045,8 +26620,11 @@
       <c r="Q199" s="5" t="s">
         <v>2542</v>
       </c>
-    </row>
-    <row r="200" spans="5:17">
+      <c r="R199" s="5" t="s">
+        <v>2753</v>
+      </c>
+    </row>
+    <row r="200" spans="5:18">
       <c r="E200" s="1" t="s">
         <v>830</v>
       </c>
@@ -25056,8 +26634,11 @@
       <c r="Q200" s="5" t="s">
         <v>2543</v>
       </c>
-    </row>
-    <row r="201" spans="5:17">
+      <c r="R200" s="5" t="s">
+        <v>2754</v>
+      </c>
+    </row>
+    <row r="201" spans="5:18">
       <c r="E201" s="1" t="s">
         <v>831</v>
       </c>
@@ -25067,8 +26648,11 @@
       <c r="Q201" s="5" t="s">
         <v>2544</v>
       </c>
-    </row>
-    <row r="202" spans="5:17">
+      <c r="R201" s="5" t="s">
+        <v>2755</v>
+      </c>
+    </row>
+    <row r="202" spans="5:18">
       <c r="E202" s="1" t="s">
         <v>832</v>
       </c>
@@ -25078,8 +26662,11 @@
       <c r="Q202" s="5" t="s">
         <v>2545</v>
       </c>
-    </row>
-    <row r="203" spans="5:17">
+      <c r="R202" s="5" t="s">
+        <v>2756</v>
+      </c>
+    </row>
+    <row r="203" spans="5:18">
       <c r="E203" s="1" t="s">
         <v>833</v>
       </c>
@@ -25089,8 +26676,11 @@
       <c r="Q203" s="5" t="s">
         <v>2546</v>
       </c>
-    </row>
-    <row r="204" spans="5:17">
+      <c r="R203" s="5" t="s">
+        <v>2757</v>
+      </c>
+    </row>
+    <row r="204" spans="5:18">
       <c r="E204" s="1" t="s">
         <v>834</v>
       </c>
@@ -25100,8 +26690,11 @@
       <c r="Q204" s="5" t="s">
         <v>2547</v>
       </c>
-    </row>
-    <row r="205" spans="5:17">
+      <c r="R204" s="5" t="s">
+        <v>2758</v>
+      </c>
+    </row>
+    <row r="205" spans="5:18">
       <c r="E205" s="1" t="s">
         <v>835</v>
       </c>
@@ -25111,8 +26704,11 @@
       <c r="Q205" s="5" t="s">
         <v>2548</v>
       </c>
-    </row>
-    <row r="206" spans="5:17">
+      <c r="R205" s="5" t="s">
+        <v>2759</v>
+      </c>
+    </row>
+    <row r="206" spans="5:18">
       <c r="E206" s="1" t="s">
         <v>836</v>
       </c>
@@ -25122,8 +26718,11 @@
       <c r="Q206" s="5" t="s">
         <v>2549</v>
       </c>
-    </row>
-    <row r="207" spans="5:17">
+      <c r="R206" s="5" t="s">
+        <v>2760</v>
+      </c>
+    </row>
+    <row r="207" spans="5:18">
       <c r="E207" s="1" t="s">
         <v>837</v>
       </c>
@@ -25133,8 +26732,11 @@
       <c r="Q207" s="5" t="s">
         <v>2550</v>
       </c>
-    </row>
-    <row r="208" spans="5:17">
+      <c r="R207" s="5" t="s">
+        <v>2761</v>
+      </c>
+    </row>
+    <row r="208" spans="5:18">
       <c r="E208" s="1" t="s">
         <v>838</v>
       </c>
@@ -25144,8 +26746,11 @@
       <c r="Q208" s="5" t="s">
         <v>2551</v>
       </c>
-    </row>
-    <row r="209" spans="5:17">
+      <c r="R208" s="5" t="s">
+        <v>2762</v>
+      </c>
+    </row>
+    <row r="209" spans="5:18">
       <c r="E209" s="1" t="s">
         <v>839</v>
       </c>
@@ -25155,8 +26760,11 @@
       <c r="Q209" s="5" t="s">
         <v>2552</v>
       </c>
-    </row>
-    <row r="210" spans="5:17">
+      <c r="R209" s="5" t="s">
+        <v>2763</v>
+      </c>
+    </row>
+    <row r="210" spans="5:18">
       <c r="E210" s="1" t="s">
         <v>840</v>
       </c>
@@ -25166,8 +26774,11 @@
       <c r="Q210" s="5" t="s">
         <v>2553</v>
       </c>
-    </row>
-    <row r="211" spans="5:17">
+      <c r="R210" s="5" t="s">
+        <v>2764</v>
+      </c>
+    </row>
+    <row r="211" spans="5:18">
       <c r="E211" s="1" t="s">
         <v>841</v>
       </c>
@@ -25177,8 +26788,11 @@
       <c r="Q211" s="5" t="s">
         <v>2554</v>
       </c>
-    </row>
-    <row r="212" spans="5:17">
+      <c r="R211" s="5" t="s">
+        <v>2765</v>
+      </c>
+    </row>
+    <row r="212" spans="5:18">
       <c r="E212" s="1" t="s">
         <v>842</v>
       </c>
@@ -25188,8 +26802,11 @@
       <c r="Q212" s="5" t="s">
         <v>2555</v>
       </c>
-    </row>
-    <row r="213" spans="5:17">
+      <c r="R212" s="5" t="s">
+        <v>2766</v>
+      </c>
+    </row>
+    <row r="213" spans="5:18">
       <c r="E213" s="1" t="s">
         <v>843</v>
       </c>
@@ -25199,456 +26816,627 @@
       <c r="Q213" s="5" t="s">
         <v>2556</v>
       </c>
-    </row>
-    <row r="214" spans="5:17">
+      <c r="R213" s="5" t="s">
+        <v>2767</v>
+      </c>
+    </row>
+    <row r="214" spans="5:18">
       <c r="E214" s="1" t="s">
         <v>844</v>
       </c>
       <c r="F214" s="5" t="s">
         <v>1190</v>
       </c>
-    </row>
-    <row r="215" spans="5:17">
+      <c r="R214" s="5" t="s">
+        <v>2768</v>
+      </c>
+    </row>
+    <row r="215" spans="5:18">
       <c r="E215" s="1" t="s">
         <v>845</v>
       </c>
       <c r="F215" s="5" t="s">
         <v>1191</v>
       </c>
-    </row>
-    <row r="216" spans="5:17">
+      <c r="R215" s="5" t="s">
+        <v>2769</v>
+      </c>
+    </row>
+    <row r="216" spans="5:18">
       <c r="E216" s="1" t="s">
         <v>846</v>
       </c>
       <c r="F216" s="5" t="s">
         <v>1192</v>
       </c>
-    </row>
-    <row r="217" spans="5:17">
+      <c r="R216" s="5" t="s">
+        <v>2770</v>
+      </c>
+    </row>
+    <row r="217" spans="5:18">
       <c r="E217" s="1" t="s">
         <v>847</v>
       </c>
       <c r="F217" s="5" t="s">
         <v>1193</v>
       </c>
-    </row>
-    <row r="218" spans="5:17">
+      <c r="R217" s="5" t="s">
+        <v>2771</v>
+      </c>
+    </row>
+    <row r="218" spans="5:18">
       <c r="E218" s="1" t="s">
         <v>848</v>
       </c>
       <c r="F218" s="5" t="s">
         <v>1194</v>
       </c>
-    </row>
-    <row r="219" spans="5:17">
+      <c r="R218" s="5" t="s">
+        <v>2772</v>
+      </c>
+    </row>
+    <row r="219" spans="5:18">
       <c r="E219" s="1" t="s">
         <v>849</v>
       </c>
       <c r="F219" s="5" t="s">
         <v>1195</v>
       </c>
-    </row>
-    <row r="220" spans="5:17">
+      <c r="R219" s="5" t="s">
+        <v>2773</v>
+      </c>
+    </row>
+    <row r="220" spans="5:18">
       <c r="E220" s="1" t="s">
         <v>850</v>
       </c>
       <c r="F220" s="5" t="s">
         <v>1196</v>
       </c>
-    </row>
-    <row r="221" spans="5:17">
+      <c r="R220" s="5" t="s">
+        <v>2774</v>
+      </c>
+    </row>
+    <row r="221" spans="5:18">
       <c r="E221" s="1" t="s">
         <v>851</v>
       </c>
       <c r="F221" s="5" t="s">
         <v>1197</v>
       </c>
-    </row>
-    <row r="222" spans="5:17">
+      <c r="R221" s="5" t="s">
+        <v>2775</v>
+      </c>
+    </row>
+    <row r="222" spans="5:18">
       <c r="E222" s="1" t="s">
         <v>852</v>
       </c>
       <c r="F222" s="5" t="s">
         <v>1198</v>
       </c>
-    </row>
-    <row r="223" spans="5:17">
+      <c r="R222" s="5" t="s">
+        <v>2776</v>
+      </c>
+    </row>
+    <row r="223" spans="5:18">
       <c r="E223" s="1" t="s">
         <v>853</v>
       </c>
       <c r="F223" s="5" t="s">
         <v>1199</v>
       </c>
-    </row>
-    <row r="224" spans="5:17">
+      <c r="R223" s="5" t="s">
+        <v>2777</v>
+      </c>
+    </row>
+    <row r="224" spans="5:18">
       <c r="E224" s="1" t="s">
         <v>854</v>
       </c>
       <c r="F224" s="5" t="s">
         <v>1200</v>
       </c>
-    </row>
-    <row r="225" spans="5:6">
+      <c r="R224" s="5" t="s">
+        <v>2778</v>
+      </c>
+    </row>
+    <row r="225" spans="5:18">
       <c r="E225" s="1" t="s">
         <v>855</v>
       </c>
       <c r="F225" s="5" t="s">
         <v>1201</v>
       </c>
-    </row>
-    <row r="226" spans="5:6">
+      <c r="R225" s="5" t="s">
+        <v>2779</v>
+      </c>
+    </row>
+    <row r="226" spans="5:18">
       <c r="E226" s="1" t="s">
         <v>856</v>
       </c>
       <c r="F226" s="5" t="s">
         <v>1202</v>
       </c>
-    </row>
-    <row r="227" spans="5:6">
+      <c r="R226" s="5" t="s">
+        <v>2780</v>
+      </c>
+    </row>
+    <row r="227" spans="5:18">
       <c r="E227" s="1" t="s">
         <v>857</v>
       </c>
       <c r="F227" s="5" t="s">
         <v>1203</v>
       </c>
-    </row>
-    <row r="228" spans="5:6">
+      <c r="R227" s="5" t="s">
+        <v>2781</v>
+      </c>
+    </row>
+    <row r="228" spans="5:18">
       <c r="E228" s="1" t="s">
         <v>858</v>
       </c>
       <c r="F228" s="5" t="s">
         <v>1204</v>
       </c>
-    </row>
-    <row r="229" spans="5:6">
+      <c r="R228" s="5" t="s">
+        <v>2782</v>
+      </c>
+    </row>
+    <row r="229" spans="5:18">
       <c r="E229" s="1" t="s">
         <v>859</v>
       </c>
       <c r="F229" s="5" t="s">
         <v>1205</v>
       </c>
-    </row>
-    <row r="230" spans="5:6">
+      <c r="R229" s="5" t="s">
+        <v>2783</v>
+      </c>
+    </row>
+    <row r="230" spans="5:18">
       <c r="E230" s="1" t="s">
         <v>860</v>
       </c>
       <c r="F230" s="5" t="s">
         <v>1206</v>
       </c>
-    </row>
-    <row r="231" spans="5:6">
+      <c r="R230" s="5" t="s">
+        <v>2784</v>
+      </c>
+    </row>
+    <row r="231" spans="5:18">
       <c r="E231" s="1" t="s">
         <v>861</v>
       </c>
       <c r="F231" s="5" t="s">
         <v>1207</v>
       </c>
-    </row>
-    <row r="232" spans="5:6">
+      <c r="R231" s="5" t="s">
+        <v>2785</v>
+      </c>
+    </row>
+    <row r="232" spans="5:18">
       <c r="E232" s="1" t="s">
         <v>862</v>
       </c>
       <c r="F232" s="5" t="s">
         <v>1208</v>
       </c>
-    </row>
-    <row r="233" spans="5:6">
+      <c r="R232" s="5" t="s">
+        <v>2786</v>
+      </c>
+    </row>
+    <row r="233" spans="5:18">
       <c r="E233" s="1" t="s">
         <v>863</v>
       </c>
       <c r="F233" s="5" t="s">
         <v>1209</v>
       </c>
-    </row>
-    <row r="234" spans="5:6">
+      <c r="R233" s="5" t="s">
+        <v>2787</v>
+      </c>
+    </row>
+    <row r="234" spans="5:18">
       <c r="E234" s="1" t="s">
         <v>864</v>
       </c>
       <c r="F234" s="5" t="s">
         <v>1210</v>
       </c>
-    </row>
-    <row r="235" spans="5:6">
+      <c r="R234" s="5" t="s">
+        <v>2788</v>
+      </c>
+    </row>
+    <row r="235" spans="5:18">
       <c r="E235" s="1" t="s">
         <v>865</v>
       </c>
       <c r="F235" s="5" t="s">
         <v>1211</v>
       </c>
-    </row>
-    <row r="236" spans="5:6">
+      <c r="R235" s="5" t="s">
+        <v>2789</v>
+      </c>
+    </row>
+    <row r="236" spans="5:18">
       <c r="E236" s="1" t="s">
         <v>866</v>
       </c>
       <c r="F236" s="5" t="s">
         <v>1212</v>
       </c>
-    </row>
-    <row r="237" spans="5:6">
+      <c r="R236" s="5" t="s">
+        <v>2790</v>
+      </c>
+    </row>
+    <row r="237" spans="5:18">
       <c r="E237" s="1" t="s">
         <v>867</v>
       </c>
       <c r="F237" s="5" t="s">
         <v>1213</v>
       </c>
-    </row>
-    <row r="238" spans="5:6">
+      <c r="R237" s="5" t="s">
+        <v>2791</v>
+      </c>
+    </row>
+    <row r="238" spans="5:18">
       <c r="E238" s="1" t="s">
         <v>868</v>
       </c>
       <c r="F238" s="5" t="s">
         <v>1214</v>
       </c>
-    </row>
-    <row r="239" spans="5:6">
+      <c r="R238" s="5" t="s">
+        <v>2792</v>
+      </c>
+    </row>
+    <row r="239" spans="5:18">
       <c r="E239" s="1" t="s">
         <v>869</v>
       </c>
       <c r="F239" s="5" t="s">
         <v>1215</v>
       </c>
-    </row>
-    <row r="240" spans="5:6">
+      <c r="R239" s="5" t="s">
+        <v>2793</v>
+      </c>
+    </row>
+    <row r="240" spans="5:18">
       <c r="E240" s="1" t="s">
         <v>870</v>
       </c>
       <c r="F240" s="5" t="s">
         <v>1216</v>
       </c>
-    </row>
-    <row r="241" spans="5:6">
+      <c r="R240" s="5" t="s">
+        <v>2794</v>
+      </c>
+    </row>
+    <row r="241" spans="5:18">
       <c r="E241" s="1" t="s">
         <v>871</v>
       </c>
       <c r="F241" s="5" t="s">
         <v>1217</v>
       </c>
-    </row>
-    <row r="242" spans="5:6">
+      <c r="R241" s="5" t="s">
+        <v>2795</v>
+      </c>
+    </row>
+    <row r="242" spans="5:18">
       <c r="E242" s="1" t="s">
         <v>872</v>
       </c>
       <c r="F242" s="5" t="s">
         <v>1218</v>
       </c>
-    </row>
-    <row r="243" spans="5:6">
+      <c r="R242" s="5" t="s">
+        <v>2796</v>
+      </c>
+    </row>
+    <row r="243" spans="5:18">
       <c r="E243" s="1" t="s">
         <v>873</v>
       </c>
       <c r="F243" s="5" t="s">
         <v>1219</v>
       </c>
-    </row>
-    <row r="244" spans="5:6">
+      <c r="R243" s="5" t="s">
+        <v>2797</v>
+      </c>
+    </row>
+    <row r="244" spans="5:18">
       <c r="E244" s="1" t="s">
         <v>874</v>
       </c>
       <c r="F244" s="5" t="s">
         <v>1220</v>
       </c>
-    </row>
-    <row r="245" spans="5:6">
+      <c r="R244" s="5" t="s">
+        <v>2798</v>
+      </c>
+    </row>
+    <row r="245" spans="5:18">
       <c r="E245" s="1" t="s">
         <v>875</v>
       </c>
       <c r="F245" s="5" t="s">
         <v>1221</v>
       </c>
-    </row>
-    <row r="246" spans="5:6">
+      <c r="R245" s="5" t="s">
+        <v>2799</v>
+      </c>
+    </row>
+    <row r="246" spans="5:18">
       <c r="E246" s="1" t="s">
         <v>876</v>
       </c>
       <c r="F246" s="5" t="s">
         <v>1222</v>
       </c>
-    </row>
-    <row r="247" spans="5:6">
+      <c r="R246" s="5" t="s">
+        <v>2800</v>
+      </c>
+    </row>
+    <row r="247" spans="5:18">
       <c r="E247" s="1" t="s">
         <v>877</v>
       </c>
       <c r="F247" s="5" t="s">
         <v>1224</v>
       </c>
-    </row>
-    <row r="248" spans="5:6">
+      <c r="R247" s="5" t="s">
+        <v>2801</v>
+      </c>
+    </row>
+    <row r="248" spans="5:18">
       <c r="E248" s="1" t="s">
         <v>878</v>
       </c>
       <c r="F248" s="5" t="s">
         <v>1226</v>
       </c>
-    </row>
-    <row r="249" spans="5:6">
+      <c r="R248" s="5" t="s">
+        <v>2802</v>
+      </c>
+    </row>
+    <row r="249" spans="5:18">
       <c r="E249" s="1" t="s">
         <v>879</v>
       </c>
       <c r="F249" s="5" t="s">
         <v>1227</v>
       </c>
-    </row>
-    <row r="250" spans="5:6">
+      <c r="R249" s="5" t="s">
+        <v>2803</v>
+      </c>
+    </row>
+    <row r="250" spans="5:18">
       <c r="E250" s="1" t="s">
         <v>880</v>
       </c>
       <c r="F250" s="5" t="s">
         <v>1228</v>
       </c>
-    </row>
-    <row r="251" spans="5:6">
+      <c r="R250" s="5" t="s">
+        <v>2804</v>
+      </c>
+    </row>
+    <row r="251" spans="5:18">
       <c r="E251" s="1" t="s">
         <v>881</v>
       </c>
       <c r="F251" s="5" t="s">
         <v>1229</v>
       </c>
-    </row>
-    <row r="252" spans="5:6">
+      <c r="R251" s="5" t="s">
+        <v>2805</v>
+      </c>
+    </row>
+    <row r="252" spans="5:18">
       <c r="E252" s="1" t="s">
         <v>882</v>
       </c>
       <c r="F252" s="5" t="s">
         <v>1230</v>
       </c>
-    </row>
-    <row r="253" spans="5:6">
+      <c r="R252" s="5" t="s">
+        <v>2806</v>
+      </c>
+    </row>
+    <row r="253" spans="5:18">
       <c r="E253" s="1" t="s">
         <v>883</v>
       </c>
       <c r="F253" s="5" t="s">
         <v>1231</v>
       </c>
-    </row>
-    <row r="254" spans="5:6">
+      <c r="R253" s="5" t="s">
+        <v>2807</v>
+      </c>
+    </row>
+    <row r="254" spans="5:18">
       <c r="E254" s="1" t="s">
         <v>884</v>
       </c>
       <c r="F254" s="5" t="s">
         <v>1232</v>
       </c>
-    </row>
-    <row r="255" spans="5:6">
+      <c r="R254" s="5" t="s">
+        <v>2808</v>
+      </c>
+    </row>
+    <row r="255" spans="5:18">
       <c r="E255" s="1" t="s">
         <v>885</v>
       </c>
       <c r="F255" s="5" t="s">
         <v>1233</v>
       </c>
-    </row>
-    <row r="256" spans="5:6">
+      <c r="R255" s="5" t="s">
+        <v>2809</v>
+      </c>
+    </row>
+    <row r="256" spans="5:18">
       <c r="E256" s="1" t="s">
         <v>886</v>
       </c>
       <c r="F256" s="5" t="s">
         <v>1234</v>
       </c>
-    </row>
-    <row r="257" spans="5:6">
+      <c r="R256" s="5" t="s">
+        <v>2810</v>
+      </c>
+    </row>
+    <row r="257" spans="5:18">
       <c r="E257" s="1" t="s">
         <v>887</v>
       </c>
       <c r="F257" s="5" t="s">
         <v>1235</v>
       </c>
-    </row>
-    <row r="258" spans="5:6">
+      <c r="R257" s="5" t="s">
+        <v>2811</v>
+      </c>
+    </row>
+    <row r="258" spans="5:18">
       <c r="E258" s="1" t="s">
         <v>888</v>
       </c>
       <c r="F258" s="5" t="s">
         <v>1236</v>
       </c>
-    </row>
-    <row r="259" spans="5:6">
+      <c r="R258" s="5" t="s">
+        <v>2812</v>
+      </c>
+    </row>
+    <row r="259" spans="5:18">
       <c r="E259" s="1" t="s">
         <v>889</v>
       </c>
       <c r="F259" s="5" t="s">
         <v>1237</v>
       </c>
-    </row>
-    <row r="260" spans="5:6">
+      <c r="R259" s="5" t="s">
+        <v>2813</v>
+      </c>
+    </row>
+    <row r="260" spans="5:18">
       <c r="E260" s="1" t="s">
         <v>890</v>
       </c>
       <c r="F260" s="5" t="s">
         <v>1238</v>
       </c>
-    </row>
-    <row r="261" spans="5:6">
+      <c r="R260" s="5" t="s">
+        <v>2814</v>
+      </c>
+    </row>
+    <row r="261" spans="5:18">
       <c r="E261" s="1" t="s">
         <v>891</v>
       </c>
       <c r="F261" s="5" t="s">
         <v>1239</v>
       </c>
-    </row>
-    <row r="262" spans="5:6">
+      <c r="R261" s="5" t="s">
+        <v>2815</v>
+      </c>
+    </row>
+    <row r="262" spans="5:18">
       <c r="E262" s="1" t="s">
         <v>892</v>
       </c>
       <c r="F262" s="5" t="s">
         <v>1240</v>
       </c>
-    </row>
-    <row r="263" spans="5:6">
+      <c r="R262" s="5" t="s">
+        <v>2816</v>
+      </c>
+    </row>
+    <row r="263" spans="5:18">
       <c r="E263" s="1" t="s">
         <v>893</v>
       </c>
       <c r="F263" s="5" t="s">
         <v>1241</v>
       </c>
-    </row>
-    <row r="264" spans="5:6">
+      <c r="R263" s="5" t="s">
+        <v>2817</v>
+      </c>
+    </row>
+    <row r="264" spans="5:18">
       <c r="E264" s="1" t="s">
         <v>894</v>
       </c>
       <c r="F264" s="5" t="s">
         <v>1242</v>
       </c>
-    </row>
-    <row r="265" spans="5:6">
+      <c r="R264" s="5" t="s">
+        <v>2818</v>
+      </c>
+    </row>
+    <row r="265" spans="5:18">
       <c r="E265" s="1" t="s">
         <v>895</v>
       </c>
       <c r="F265" s="5" t="s">
         <v>1243</v>
       </c>
-    </row>
-    <row r="266" spans="5:6">
+      <c r="R265" s="5" t="s">
+        <v>2819</v>
+      </c>
+    </row>
+    <row r="266" spans="5:18">
       <c r="E266" s="1" t="s">
         <v>896</v>
       </c>
       <c r="F266" s="5" t="s">
         <v>1244</v>
       </c>
-    </row>
-    <row r="267" spans="5:6">
+      <c r="R266" s="5" t="s">
+        <v>2820</v>
+      </c>
+    </row>
+    <row r="267" spans="5:18">
       <c r="E267" s="1" t="s">
         <v>897</v>
       </c>
       <c r="F267" s="5" t="s">
         <v>1245</v>
       </c>
-    </row>
-    <row r="268" spans="5:6">
+      <c r="R267" s="5" t="s">
+        <v>2821</v>
+      </c>
+    </row>
+    <row r="268" spans="5:18">
       <c r="E268" s="1" t="s">
         <v>898</v>
       </c>
       <c r="F268" s="5" t="s">
         <v>1246</v>
       </c>
-    </row>
-    <row r="269" spans="5:6">
+      <c r="R268" s="5" t="s">
+        <v>2822</v>
+      </c>
+    </row>
+    <row r="269" spans="5:18">
       <c r="E269" s="1" t="s">
         <v>899</v>
       </c>
       <c r="F269" s="5" t="s">
         <v>1247</v>
       </c>
-    </row>
-    <row r="270" spans="5:6">
+      <c r="R269" s="5" t="s">
+        <v>2823</v>
+      </c>
+    </row>
+    <row r="270" spans="5:18">
       <c r="E270" s="1" t="s">
         <v>900</v>
       </c>
@@ -25656,7 +27444,7 @@
         <v>1248</v>
       </c>
     </row>
-    <row r="271" spans="5:6">
+    <row r="271" spans="5:18">
       <c r="E271" s="1" t="s">
         <v>901</v>
       </c>
@@ -25664,7 +27452,7 @@
         <v>1249</v>
       </c>
     </row>
-    <row r="272" spans="5:6">
+    <row r="272" spans="5:18">
       <c r="E272" s="1" t="s">
         <v>902</v>
       </c>

--- a/Autostockin/ยิงรับ 49.xlsx
+++ b/Autostockin/ยิงรับ 49.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Workstuff\my-work-python-script\Autostockin\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA781523-F4FE-495A-A830-9B1B23B4B411}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BC1C4A9-86CF-4FDA-B9D6-6356D42B2D13}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3780" yWindow="1095" windowWidth="21600" windowHeight="11295" xr2:uid="{47EFCF22-5A4D-4004-9D3D-F4E18B203E38}"/>
+    <workbookView xWindow="11025" yWindow="1425" windowWidth="21600" windowHeight="11295" activeTab="2" xr2:uid="{47EFCF22-5A4D-4004-9D3D-F4E18B203E38}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$C$1:$E$250</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$C$1:$E$249</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5329" uniqueCount="3927">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5389" uniqueCount="3987">
   <si>
     <t xml:space="preserve">Bill Type: </t>
   </si>
@@ -11819,6 +11819,186 @@
   </si>
   <si>
     <t>+1292-1055</t>
+  </si>
+  <si>
+    <t>+1858-562</t>
+  </si>
+  <si>
+    <t>+2598-1085</t>
+  </si>
+  <si>
+    <t>+1707-944</t>
+  </si>
+  <si>
+    <t>+1070-1222</t>
+  </si>
+  <si>
+    <t>+5198-371</t>
+  </si>
+  <si>
+    <t>+4977-663</t>
+  </si>
+  <si>
+    <t>+1499-770</t>
+  </si>
+  <si>
+    <t>+407-823</t>
+  </si>
+  <si>
+    <t>+249-1520</t>
+  </si>
+  <si>
+    <t>+140-1708</t>
+  </si>
+  <si>
+    <t>+3369-743</t>
+  </si>
+  <si>
+    <t>+5545-423</t>
+  </si>
+  <si>
+    <t>+2709-724</t>
+  </si>
+  <si>
+    <t>+2754-1273</t>
+  </si>
+  <si>
+    <t>+0023-1748</t>
+  </si>
+  <si>
+    <t>+2387-795</t>
+  </si>
+  <si>
+    <t>757-1298</t>
+  </si>
+  <si>
+    <t>+1667-949</t>
+  </si>
+  <si>
+    <t>+10880-1067</t>
+  </si>
+  <si>
+    <t>+0080-1752</t>
+  </si>
+  <si>
+    <t>+7827-241</t>
+  </si>
+  <si>
+    <t>+186-1515</t>
+  </si>
+  <si>
+    <t>+743-1214</t>
+  </si>
+  <si>
+    <t>+3363-789</t>
+  </si>
+  <si>
+    <t>+1055-1305</t>
+  </si>
+  <si>
+    <t>+1225-891</t>
+  </si>
+  <si>
+    <t>+14073-64</t>
+  </si>
+  <si>
+    <t>+2849-792</t>
+  </si>
+  <si>
+    <t>+1599-840</t>
+  </si>
+  <si>
+    <t>+867-1326</t>
+  </si>
+  <si>
+    <t>+3631-856</t>
+  </si>
+  <si>
+    <t>+2003-1056</t>
+  </si>
+  <si>
+    <t>+5797-1075</t>
+  </si>
+  <si>
+    <t>+118-1503</t>
+  </si>
+  <si>
+    <t>+1081-1289</t>
+  </si>
+  <si>
+    <t>+2785-929</t>
+  </si>
+  <si>
+    <t>+9620-487</t>
+  </si>
+  <si>
+    <t>+4412-767</t>
+  </si>
+  <si>
+    <t>+2565-758</t>
+  </si>
+  <si>
+    <t>+2970-1053</t>
+  </si>
+  <si>
+    <t>+8052-671</t>
+  </si>
+  <si>
+    <t>+8651-749</t>
+  </si>
+  <si>
+    <t>+9748-619</t>
+  </si>
+  <si>
+    <t>+586-1313</t>
+  </si>
+  <si>
+    <t>+7357-650</t>
+  </si>
+  <si>
+    <t>+2803-1095</t>
+  </si>
+  <si>
+    <t>+32470-179</t>
+  </si>
+  <si>
+    <t>+629-1445</t>
+  </si>
+  <si>
+    <t>+8921-717</t>
+  </si>
+  <si>
+    <t>+0026-1762</t>
+  </si>
+  <si>
+    <t>+1060-852</t>
+  </si>
+  <si>
+    <t>+3570-446</t>
+  </si>
+  <si>
+    <t>+26536-232</t>
+  </si>
+  <si>
+    <t>+2787-798</t>
+  </si>
+  <si>
+    <t>+34912-222</t>
+  </si>
+  <si>
+    <t>+9647-458</t>
+  </si>
+  <si>
+    <t>+6240-794</t>
+  </si>
+  <si>
+    <t>+2896-484</t>
+  </si>
+  <si>
+    <t>+19013-646</t>
+  </si>
+  <si>
+    <t>+13677-240</t>
   </si>
 </sst>
 </file>
@@ -11879,7 +12059,14 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="1">
+  <dxfs count="2">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -12197,10 +12384,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B40E757-AF6D-418F-8CB6-C916F96CFF4A}">
-  <dimension ref="A1:G109"/>
+  <dimension ref="A1:G108"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:A69"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A1:A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -12210,10 +12397,7 @@
     <col min="7" max="7" width="12.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
-      <c r="A1" s="1" t="s">
-        <v>3857</v>
-      </c>
+    <row r="1" spans="2:5">
       <c r="B1" s="1" t="s">
         <v>541</v>
       </c>
@@ -12228,392 +12412,91 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
-      <c r="A2" s="1" t="s">
-        <v>3858</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="A3" s="1" t="s">
-        <v>3859</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="A4" s="1" t="s">
-        <v>3860</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="A5" s="1" t="s">
-        <v>3861</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
-      <c r="A6" s="1" t="s">
-        <v>3862</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
-      <c r="A7" s="1" t="s">
-        <v>3863</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
-      <c r="A8" s="1" t="s">
-        <v>3864</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
-      <c r="A9" s="1" t="s">
-        <v>3865</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
-      <c r="A10" s="1" t="s">
-        <v>3866</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
-      <c r="A11" s="1" t="s">
-        <v>3867</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
-      <c r="A12" s="1" t="s">
-        <v>3868</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
-      <c r="A13" s="1" t="s">
-        <v>3869</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5">
-      <c r="A14" s="1" t="s">
-        <v>3870</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5">
-      <c r="A15" s="1" t="s">
-        <v>3871</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5">
-      <c r="A16" s="1" t="s">
-        <v>3872</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1">
-      <c r="A17" s="1" t="s">
-        <v>3873</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1">
-      <c r="A18" s="1" t="s">
-        <v>3874</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1">
-      <c r="A19" s="1" t="s">
-        <v>3875</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1">
-      <c r="A20" s="1" t="s">
-        <v>3876</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1">
-      <c r="A21" s="1" t="s">
-        <v>3877</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1">
-      <c r="A22" s="1" t="s">
-        <v>3878</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1">
-      <c r="A23" s="1" t="s">
-        <v>3879</v>
-      </c>
-    </row>
-    <row r="24" spans="1:1">
-      <c r="A24" s="1" t="s">
-        <v>3880</v>
-      </c>
-    </row>
-    <row r="25" spans="1:1">
-      <c r="A25" s="1" t="s">
-        <v>3881</v>
-      </c>
-    </row>
-    <row r="26" spans="1:1">
-      <c r="A26" s="1" t="s">
-        <v>3882</v>
-      </c>
-    </row>
-    <row r="27" spans="1:1">
-      <c r="A27" s="1" t="s">
-        <v>3883</v>
-      </c>
-    </row>
-    <row r="28" spans="1:1">
-      <c r="A28" s="1" t="s">
-        <v>3884</v>
-      </c>
-    </row>
-    <row r="29" spans="1:1">
-      <c r="A29" s="1" t="s">
-        <v>3885</v>
-      </c>
-    </row>
-    <row r="30" spans="1:1">
-      <c r="A30" s="1" t="s">
-        <v>3886</v>
-      </c>
-    </row>
-    <row r="31" spans="1:1">
-      <c r="A31" s="1" t="s">
-        <v>3887</v>
-      </c>
-    </row>
-    <row r="32" spans="1:1">
-      <c r="A32" s="1" t="s">
-        <v>3888</v>
-      </c>
-    </row>
-    <row r="33" spans="1:1">
-      <c r="A33" s="1" t="s">
-        <v>3889</v>
-      </c>
-    </row>
-    <row r="34" spans="1:1">
-      <c r="A34" s="1" t="s">
-        <v>3890</v>
-      </c>
-    </row>
-    <row r="35" spans="1:1">
-      <c r="A35" s="1" t="s">
-        <v>3891</v>
-      </c>
-    </row>
-    <row r="36" spans="1:1">
-      <c r="A36" s="1" t="s">
-        <v>3892</v>
-      </c>
-    </row>
-    <row r="37" spans="1:1">
-      <c r="A37" s="1" t="s">
-        <v>3893</v>
-      </c>
-    </row>
-    <row r="38" spans="1:1">
-      <c r="A38" s="1" t="s">
-        <v>3894</v>
-      </c>
-    </row>
-    <row r="39" spans="1:1">
-      <c r="A39" s="1" t="s">
-        <v>3895</v>
-      </c>
-    </row>
-    <row r="40" spans="1:1">
-      <c r="A40" s="1" t="s">
-        <v>3896</v>
-      </c>
-    </row>
-    <row r="41" spans="1:1">
-      <c r="A41" s="1" t="s">
-        <v>3897</v>
-      </c>
-    </row>
-    <row r="42" spans="1:1">
-      <c r="A42" s="1" t="s">
-        <v>3898</v>
-      </c>
-    </row>
-    <row r="43" spans="1:1">
-      <c r="A43" s="1" t="s">
-        <v>3899</v>
-      </c>
-    </row>
-    <row r="44" spans="1:1">
-      <c r="A44" s="1" t="s">
-        <v>3900</v>
-      </c>
-    </row>
-    <row r="45" spans="1:1">
-      <c r="A45" s="1" t="s">
-        <v>3901</v>
-      </c>
-    </row>
-    <row r="46" spans="1:1">
-      <c r="A46" s="1" t="s">
-        <v>3902</v>
-      </c>
-    </row>
-    <row r="47" spans="1:1">
-      <c r="A47" s="1" t="s">
-        <v>3903</v>
-      </c>
-    </row>
-    <row r="48" spans="1:1">
-      <c r="A48" s="1" t="s">
-        <v>3904</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7">
-      <c r="A49" s="1" t="s">
-        <v>3905</v>
-      </c>
-    </row>
-    <row r="50" spans="1:7">
-      <c r="A50" s="1" t="s">
-        <v>3906</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7">
-      <c r="A51" s="1" t="s">
-        <v>3907</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7">
-      <c r="A52" s="1" t="s">
-        <v>3908</v>
-      </c>
+    <row r="51" spans="7:7">
+      <c r="G51" s="1"/>
+    </row>
+    <row r="52" spans="7:7">
       <c r="G52" s="1"/>
     </row>
-    <row r="53" spans="1:7">
-      <c r="A53" s="1" t="s">
-        <v>3909</v>
-      </c>
+    <row r="53" spans="7:7">
       <c r="G53" s="1"/>
     </row>
-    <row r="54" spans="1:7">
-      <c r="A54" s="1" t="s">
-        <v>3910</v>
-      </c>
+    <row r="54" spans="7:7">
       <c r="G54" s="1"/>
     </row>
-    <row r="55" spans="1:7">
-      <c r="A55" s="1" t="s">
-        <v>3911</v>
-      </c>
+    <row r="55" spans="7:7">
       <c r="G55" s="1"/>
     </row>
-    <row r="56" spans="1:7">
-      <c r="A56" s="1" t="s">
-        <v>3912</v>
-      </c>
+    <row r="56" spans="7:7">
       <c r="G56" s="1"/>
     </row>
-    <row r="57" spans="1:7">
-      <c r="A57" s="1" t="s">
-        <v>3913</v>
-      </c>
+    <row r="57" spans="7:7">
       <c r="G57" s="1"/>
     </row>
-    <row r="58" spans="1:7">
-      <c r="A58" s="1" t="s">
-        <v>3914</v>
-      </c>
+    <row r="58" spans="7:7">
       <c r="G58" s="1"/>
     </row>
-    <row r="59" spans="1:7">
-      <c r="A59" s="1" t="s">
-        <v>3915</v>
-      </c>
+    <row r="59" spans="7:7">
       <c r="G59" s="1"/>
     </row>
-    <row r="60" spans="1:7">
-      <c r="A60" s="1" t="s">
-        <v>3916</v>
-      </c>
+    <row r="60" spans="7:7">
       <c r="G60" s="1"/>
     </row>
-    <row r="61" spans="1:7">
-      <c r="A61" s="1" t="s">
-        <v>3917</v>
-      </c>
+    <row r="61" spans="7:7">
       <c r="G61" s="1"/>
     </row>
-    <row r="62" spans="1:7">
-      <c r="A62" s="1" t="s">
-        <v>3918</v>
-      </c>
+    <row r="62" spans="7:7">
       <c r="G62" s="1"/>
     </row>
-    <row r="63" spans="1:7">
-      <c r="A63" s="1" t="s">
-        <v>3919</v>
-      </c>
+    <row r="63" spans="7:7">
       <c r="G63" s="1"/>
     </row>
-    <row r="64" spans="1:7">
-      <c r="A64" s="1" t="s">
-        <v>3920</v>
-      </c>
+    <row r="64" spans="7:7">
       <c r="G64" s="1"/>
     </row>
-    <row r="65" spans="1:7">
-      <c r="A65" s="1" t="s">
-        <v>3921</v>
-      </c>
+    <row r="65" spans="7:7">
       <c r="G65" s="1"/>
     </row>
-    <row r="66" spans="1:7">
-      <c r="A66" s="1" t="s">
-        <v>3922</v>
-      </c>
+    <row r="66" spans="7:7">
       <c r="G66" s="1"/>
     </row>
-    <row r="67" spans="1:7">
-      <c r="A67" s="1" t="s">
-        <v>3923</v>
-      </c>
+    <row r="67" spans="7:7">
       <c r="G67" s="1"/>
     </row>
-    <row r="68" spans="1:7">
-      <c r="A68" s="1" t="s">
-        <v>3924</v>
-      </c>
+    <row r="68" spans="7:7">
       <c r="G68" s="1"/>
     </row>
-    <row r="69" spans="1:7">
-      <c r="A69" s="1" t="s">
-        <v>3925</v>
-      </c>
+    <row r="69" spans="7:7">
       <c r="G69" s="1"/>
     </row>
-    <row r="70" spans="1:7">
-      <c r="G70" s="1"/>
-    </row>
-    <row r="72" spans="1:7">
+    <row r="71" spans="7:7">
+      <c r="G71" s="1"/>
+    </row>
+    <row r="72" spans="7:7">
       <c r="G72" s="1"/>
     </row>
-    <row r="73" spans="1:7">
+    <row r="73" spans="7:7">
       <c r="G73" s="1"/>
     </row>
-    <row r="74" spans="1:7">
+    <row r="74" spans="7:7">
       <c r="G74" s="1"/>
     </row>
-    <row r="75" spans="1:7">
+    <row r="75" spans="7:7">
       <c r="G75" s="1"/>
     </row>
-    <row r="76" spans="1:7">
+    <row r="76" spans="7:7">
       <c r="G76" s="1"/>
     </row>
-    <row r="77" spans="1:7">
+    <row r="77" spans="7:7">
       <c r="G77" s="1"/>
     </row>
-    <row r="78" spans="1:7">
+    <row r="78" spans="7:7">
       <c r="G78" s="1"/>
     </row>
-    <row r="79" spans="1:7">
+    <row r="79" spans="7:7">
       <c r="G79" s="1"/>
     </row>
-    <row r="80" spans="1:7">
+    <row r="80" spans="7:7">
       <c r="G80" s="1"/>
     </row>
     <row r="81" spans="7:7">
@@ -12700,14 +12583,11 @@
     <row r="108" spans="7:7">
       <c r="G108" s="1"/>
     </row>
-    <row r="109" spans="7:7">
-      <c r="G109" s="1"/>
-    </row>
   </sheetData>
-  <autoFilter ref="C1:E250" xr:uid="{1B40E757-AF6D-418F-8CB6-C916F96CFF4A}"/>
+  <autoFilter ref="C1:E249" xr:uid="{1B40E757-AF6D-418F-8CB6-C916F96CFF4A}"/>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="A471:A1048576">
-    <cfRule type="duplicateValues" dxfId="0" priority="22"/>
+  <conditionalFormatting sqref="A43:A1048576">
+    <cfRule type="duplicateValues" dxfId="1" priority="22"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="167" orientation="portrait" horizontalDpi="180" verticalDpi="180" r:id="rId1"/>
@@ -23230,10 +23110,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{37C21679-A84C-4371-A1C5-AF880A10BEAA}">
-  <dimension ref="A1:V491"/>
+  <dimension ref="A1:X491"/>
   <sheetViews>
-    <sheetView topLeftCell="G35" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="V62" sqref="V62:V67"/>
+    <sheetView tabSelected="1" topLeftCell="V1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="X12" sqref="X12:X13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -23248,7 +23128,7 @@
     <col min="21" max="22" width="9.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22">
+    <row r="1" spans="1:24">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -23312,8 +23192,14 @@
       <c r="V1" s="4">
         <v>44804</v>
       </c>
-    </row>
-    <row r="2" spans="1:22">
+      <c r="W1" s="4">
+        <v>44805</v>
+      </c>
+      <c r="X1" s="4">
+        <v>44806</v>
+      </c>
+    </row>
+    <row r="2" spans="1:24">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -23377,8 +23263,14 @@
       <c r="V2" s="1" t="s">
         <v>3792</v>
       </c>
-    </row>
-    <row r="3" spans="1:22">
+      <c r="W2" s="1" t="s">
+        <v>3927</v>
+      </c>
+      <c r="X2" s="1" t="s">
+        <v>3975</v>
+      </c>
+    </row>
+    <row r="3" spans="1:24">
       <c r="C3" s="1" t="s">
         <v>543</v>
       </c>
@@ -23439,8 +23331,14 @@
       <c r="V3" s="1" t="s">
         <v>3793</v>
       </c>
-    </row>
-    <row r="4" spans="1:22">
+      <c r="W3" s="1" t="s">
+        <v>3928</v>
+      </c>
+      <c r="X3" s="1" t="s">
+        <v>3976</v>
+      </c>
+    </row>
+    <row r="4" spans="1:24">
       <c r="C4" s="1" t="s">
         <v>544</v>
       </c>
@@ -23501,8 +23399,14 @@
       <c r="V4" s="1" t="s">
         <v>3794</v>
       </c>
-    </row>
-    <row r="5" spans="1:22">
+      <c r="W4" s="1" t="s">
+        <v>3929</v>
+      </c>
+      <c r="X4" s="1" t="s">
+        <v>3977</v>
+      </c>
+    </row>
+    <row r="5" spans="1:24">
       <c r="C5" s="1" t="s">
         <v>545</v>
       </c>
@@ -23560,8 +23464,14 @@
       <c r="V5" s="1" t="s">
         <v>3795</v>
       </c>
-    </row>
-    <row r="6" spans="1:22">
+      <c r="W5" s="1" t="s">
+        <v>3930</v>
+      </c>
+      <c r="X5" s="1" t="s">
+        <v>3978</v>
+      </c>
+    </row>
+    <row r="6" spans="1:24">
       <c r="C6" s="1" t="s">
         <v>546</v>
       </c>
@@ -23619,8 +23529,14 @@
       <c r="V6" s="1" t="s">
         <v>3796</v>
       </c>
-    </row>
-    <row r="7" spans="1:22">
+      <c r="W6" s="1" t="s">
+        <v>3931</v>
+      </c>
+      <c r="X6" s="1" t="s">
+        <v>3979</v>
+      </c>
+    </row>
+    <row r="7" spans="1:24">
       <c r="C7" s="1" t="s">
         <v>547</v>
       </c>
@@ -23678,8 +23594,14 @@
       <c r="V7" s="1" t="s">
         <v>3797</v>
       </c>
-    </row>
-    <row r="8" spans="1:22">
+      <c r="W7" s="1" t="s">
+        <v>3932</v>
+      </c>
+      <c r="X7" s="1" t="s">
+        <v>3980</v>
+      </c>
+    </row>
+    <row r="8" spans="1:24">
       <c r="C8" s="1" t="s">
         <v>548</v>
       </c>
@@ -23737,8 +23659,14 @@
       <c r="V8" s="1" t="s">
         <v>3798</v>
       </c>
-    </row>
-    <row r="9" spans="1:22">
+      <c r="W8" s="1" t="s">
+        <v>3933</v>
+      </c>
+      <c r="X8" s="1" t="s">
+        <v>3981</v>
+      </c>
+    </row>
+    <row r="9" spans="1:24">
       <c r="C9" s="1" t="s">
         <v>549</v>
       </c>
@@ -23796,8 +23724,14 @@
       <c r="V9" s="1" t="s">
         <v>3799</v>
       </c>
-    </row>
-    <row r="10" spans="1:22">
+      <c r="W9" s="1" t="s">
+        <v>3934</v>
+      </c>
+      <c r="X9" s="1" t="s">
+        <v>3982</v>
+      </c>
+    </row>
+    <row r="10" spans="1:24">
       <c r="C10" s="1" t="s">
         <v>550</v>
       </c>
@@ -23855,8 +23789,14 @@
       <c r="V10" s="1" t="s">
         <v>3800</v>
       </c>
-    </row>
-    <row r="11" spans="1:22">
+      <c r="W10" s="1" t="s">
+        <v>3935</v>
+      </c>
+      <c r="X10" s="1" t="s">
+        <v>3983</v>
+      </c>
+    </row>
+    <row r="11" spans="1:24">
       <c r="C11" s="1" t="s">
         <v>551</v>
       </c>
@@ -23914,8 +23854,14 @@
       <c r="V11" s="1" t="s">
         <v>3801</v>
       </c>
-    </row>
-    <row r="12" spans="1:22">
+      <c r="W11" s="1" t="s">
+        <v>3936</v>
+      </c>
+      <c r="X11" s="1" t="s">
+        <v>3984</v>
+      </c>
+    </row>
+    <row r="12" spans="1:24">
       <c r="C12" s="1" t="s">
         <v>552</v>
       </c>
@@ -23973,8 +23919,14 @@
       <c r="V12" s="1" t="s">
         <v>3802</v>
       </c>
-    </row>
-    <row r="13" spans="1:22">
+      <c r="W12" s="1" t="s">
+        <v>3937</v>
+      </c>
+      <c r="X12" s="1" t="s">
+        <v>3985</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24">
       <c r="C13" s="1" t="s">
         <v>553</v>
       </c>
@@ -24032,8 +23984,14 @@
       <c r="V13" s="1" t="s">
         <v>3803</v>
       </c>
-    </row>
-    <row r="14" spans="1:22">
+      <c r="W13" s="1" t="s">
+        <v>3938</v>
+      </c>
+      <c r="X13" s="1" t="s">
+        <v>3986</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24">
       <c r="C14" s="1" t="s">
         <v>554</v>
       </c>
@@ -24088,8 +24046,11 @@
       <c r="V14" s="1" t="s">
         <v>3804</v>
       </c>
-    </row>
-    <row r="15" spans="1:22">
+      <c r="W14" s="1" t="s">
+        <v>3939</v>
+      </c>
+    </row>
+    <row r="15" spans="1:24">
       <c r="C15" s="1" t="s">
         <v>555</v>
       </c>
@@ -24144,8 +24105,11 @@
       <c r="V15" s="1" t="s">
         <v>3805</v>
       </c>
-    </row>
-    <row r="16" spans="1:22">
+      <c r="W15" s="1" t="s">
+        <v>3940</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24">
       <c r="C16" s="1" t="s">
         <v>556</v>
       </c>
@@ -24197,8 +24161,11 @@
       <c r="V16" s="1" t="s">
         <v>3806</v>
       </c>
-    </row>
-    <row r="17" spans="3:22">
+      <c r="W16" s="1" t="s">
+        <v>3941</v>
+      </c>
+    </row>
+    <row r="17" spans="3:23">
       <c r="C17" s="1" t="s">
         <v>557</v>
       </c>
@@ -24250,8 +24217,11 @@
       <c r="V17" s="1" t="s">
         <v>3807</v>
       </c>
-    </row>
-    <row r="18" spans="3:22">
+      <c r="W17" s="1" t="s">
+        <v>3942</v>
+      </c>
+    </row>
+    <row r="18" spans="3:23">
       <c r="C18" s="1" t="s">
         <v>558</v>
       </c>
@@ -24303,8 +24273,11 @@
       <c r="V18" s="1" t="s">
         <v>3808</v>
       </c>
-    </row>
-    <row r="19" spans="3:22">
+      <c r="W18" s="1" t="s">
+        <v>3943</v>
+      </c>
+    </row>
+    <row r="19" spans="3:23">
       <c r="C19" s="1" t="s">
         <v>559</v>
       </c>
@@ -24356,8 +24329,11 @@
       <c r="V19" s="1" t="s">
         <v>3809</v>
       </c>
-    </row>
-    <row r="20" spans="3:22">
+      <c r="W19" s="1" t="s">
+        <v>3944</v>
+      </c>
+    </row>
+    <row r="20" spans="3:23">
       <c r="C20" s="1" t="s">
         <v>560</v>
       </c>
@@ -24409,8 +24385,11 @@
       <c r="V20" s="1" t="s">
         <v>3810</v>
       </c>
-    </row>
-    <row r="21" spans="3:22">
+      <c r="W20" s="1" t="s">
+        <v>3945</v>
+      </c>
+    </row>
+    <row r="21" spans="3:23">
       <c r="C21" s="1" t="s">
         <v>561</v>
       </c>
@@ -24462,8 +24441,11 @@
       <c r="V21" s="1" t="s">
         <v>3811</v>
       </c>
-    </row>
-    <row r="22" spans="3:22">
+      <c r="W21" s="1" t="s">
+        <v>3946</v>
+      </c>
+    </row>
+    <row r="22" spans="3:23">
       <c r="C22" s="1" t="s">
         <v>562</v>
       </c>
@@ -24515,8 +24497,11 @@
       <c r="V22" s="1" t="s">
         <v>3812</v>
       </c>
-    </row>
-    <row r="23" spans="3:22">
+      <c r="W22" s="1" t="s">
+        <v>3947</v>
+      </c>
+    </row>
+    <row r="23" spans="3:23">
       <c r="C23" s="1" t="s">
         <v>563</v>
       </c>
@@ -24568,8 +24553,11 @@
       <c r="V23" s="1" t="s">
         <v>3813</v>
       </c>
-    </row>
-    <row r="24" spans="3:22">
+      <c r="W23" s="1" t="s">
+        <v>3948</v>
+      </c>
+    </row>
+    <row r="24" spans="3:23">
       <c r="D24" s="1" t="s">
         <v>585</v>
       </c>
@@ -24618,8 +24606,11 @@
       <c r="V24" s="1" t="s">
         <v>3814</v>
       </c>
-    </row>
-    <row r="25" spans="3:22">
+      <c r="W24" s="1" t="s">
+        <v>3949</v>
+      </c>
+    </row>
+    <row r="25" spans="3:23">
       <c r="D25" s="1" t="s">
         <v>586</v>
       </c>
@@ -24668,8 +24659,11 @@
       <c r="V25" s="1" t="s">
         <v>3815</v>
       </c>
-    </row>
-    <row r="26" spans="3:22">
+      <c r="W25" s="1" t="s">
+        <v>3950</v>
+      </c>
+    </row>
+    <row r="26" spans="3:23">
       <c r="D26" s="1" t="s">
         <v>587</v>
       </c>
@@ -24718,8 +24712,11 @@
       <c r="V26" s="1" t="s">
         <v>3816</v>
       </c>
-    </row>
-    <row r="27" spans="3:22">
+      <c r="W26" s="1" t="s">
+        <v>3951</v>
+      </c>
+    </row>
+    <row r="27" spans="3:23">
       <c r="D27" s="1" t="s">
         <v>588</v>
       </c>
@@ -24768,8 +24765,11 @@
       <c r="V27" s="1" t="s">
         <v>3817</v>
       </c>
-    </row>
-    <row r="28" spans="3:22">
+      <c r="W27" s="1" t="s">
+        <v>3952</v>
+      </c>
+    </row>
+    <row r="28" spans="3:23">
       <c r="D28" s="1" t="s">
         <v>589</v>
       </c>
@@ -24818,8 +24818,11 @@
       <c r="V28" s="1" t="s">
         <v>3818</v>
       </c>
-    </row>
-    <row r="29" spans="3:22">
+      <c r="W28" s="1" t="s">
+        <v>3953</v>
+      </c>
+    </row>
+    <row r="29" spans="3:23">
       <c r="D29" s="1" t="s">
         <v>590</v>
       </c>
@@ -24868,8 +24871,11 @@
       <c r="V29" s="1" t="s">
         <v>3819</v>
       </c>
-    </row>
-    <row r="30" spans="3:22">
+      <c r="W29" s="1" t="s">
+        <v>3954</v>
+      </c>
+    </row>
+    <row r="30" spans="3:23">
       <c r="D30" s="1" t="s">
         <v>591</v>
       </c>
@@ -24918,8 +24924,11 @@
       <c r="V30" s="1" t="s">
         <v>3820</v>
       </c>
-    </row>
-    <row r="31" spans="3:22">
+      <c r="W30" s="1" t="s">
+        <v>3955</v>
+      </c>
+    </row>
+    <row r="31" spans="3:23">
       <c r="D31" s="1" t="s">
         <v>592</v>
       </c>
@@ -24968,8 +24977,11 @@
       <c r="V31" s="1" t="s">
         <v>3821</v>
       </c>
-    </row>
-    <row r="32" spans="3:22">
+      <c r="W31" s="1" t="s">
+        <v>3956</v>
+      </c>
+    </row>
+    <row r="32" spans="3:23">
       <c r="D32" s="1" t="s">
         <v>593</v>
       </c>
@@ -25018,8 +25030,11 @@
       <c r="V32" s="1" t="s">
         <v>3822</v>
       </c>
-    </row>
-    <row r="33" spans="4:22">
+      <c r="W32" s="1" t="s">
+        <v>3957</v>
+      </c>
+    </row>
+    <row r="33" spans="4:23">
       <c r="D33" s="1" t="s">
         <v>594</v>
       </c>
@@ -25068,8 +25083,11 @@
       <c r="V33" s="1" t="s">
         <v>3823</v>
       </c>
-    </row>
-    <row r="34" spans="4:22">
+      <c r="W33" s="1" t="s">
+        <v>3958</v>
+      </c>
+    </row>
+    <row r="34" spans="4:23">
       <c r="D34" s="1" t="s">
         <v>595</v>
       </c>
@@ -25118,8 +25136,11 @@
       <c r="V34" s="1" t="s">
         <v>3824</v>
       </c>
-    </row>
-    <row r="35" spans="4:22">
+      <c r="W34" s="1" t="s">
+        <v>3959</v>
+      </c>
+    </row>
+    <row r="35" spans="4:23">
       <c r="D35" s="1" t="s">
         <v>596</v>
       </c>
@@ -25168,8 +25189,11 @@
       <c r="V35" s="1" t="s">
         <v>3825</v>
       </c>
-    </row>
-    <row r="36" spans="4:22">
+      <c r="W35" s="1" t="s">
+        <v>3960</v>
+      </c>
+    </row>
+    <row r="36" spans="4:23">
       <c r="D36" s="1" t="s">
         <v>597</v>
       </c>
@@ -25218,8 +25242,11 @@
       <c r="V36" s="1" t="s">
         <v>3826</v>
       </c>
-    </row>
-    <row r="37" spans="4:22">
+      <c r="W36" s="1" t="s">
+        <v>3961</v>
+      </c>
+    </row>
+    <row r="37" spans="4:23">
       <c r="D37" s="1" t="s">
         <v>598</v>
       </c>
@@ -25268,8 +25295,11 @@
       <c r="V37" s="1" t="s">
         <v>3827</v>
       </c>
-    </row>
-    <row r="38" spans="4:22">
+      <c r="W37" s="1" t="s">
+        <v>3962</v>
+      </c>
+    </row>
+    <row r="38" spans="4:23">
       <c r="D38" s="1" t="s">
         <v>599</v>
       </c>
@@ -25318,8 +25348,11 @@
       <c r="V38" s="1" t="s">
         <v>3828</v>
       </c>
-    </row>
-    <row r="39" spans="4:22">
+      <c r="W38" s="1" t="s">
+        <v>3963</v>
+      </c>
+    </row>
+    <row r="39" spans="4:23">
       <c r="D39" s="1" t="s">
         <v>600</v>
       </c>
@@ -25368,8 +25401,11 @@
       <c r="V39" s="1" t="s">
         <v>3829</v>
       </c>
-    </row>
-    <row r="40" spans="4:22">
+      <c r="W39" s="1" t="s">
+        <v>3964</v>
+      </c>
+    </row>
+    <row r="40" spans="4:23">
       <c r="D40" s="1" t="s">
         <v>601</v>
       </c>
@@ -25418,8 +25454,11 @@
       <c r="V40" s="1" t="s">
         <v>3830</v>
       </c>
-    </row>
-    <row r="41" spans="4:22">
+      <c r="W40" s="1" t="s">
+        <v>3965</v>
+      </c>
+    </row>
+    <row r="41" spans="4:23">
       <c r="D41" s="1" t="s">
         <v>602</v>
       </c>
@@ -25468,8 +25507,11 @@
       <c r="V41" s="1" t="s">
         <v>3831</v>
       </c>
-    </row>
-    <row r="42" spans="4:22">
+      <c r="W41" s="1" t="s">
+        <v>3966</v>
+      </c>
+    </row>
+    <row r="42" spans="4:23">
       <c r="D42" s="1" t="s">
         <v>603</v>
       </c>
@@ -25518,8 +25560,11 @@
       <c r="V42" s="1" t="s">
         <v>3832</v>
       </c>
-    </row>
-    <row r="43" spans="4:22">
+      <c r="W42" s="1" t="s">
+        <v>3967</v>
+      </c>
+    </row>
+    <row r="43" spans="4:23">
       <c r="D43" s="1" t="s">
         <v>604</v>
       </c>
@@ -25568,8 +25613,11 @@
       <c r="V43" s="1" t="s">
         <v>3833</v>
       </c>
-    </row>
-    <row r="44" spans="4:22">
+      <c r="W43" s="1" t="s">
+        <v>3968</v>
+      </c>
+    </row>
+    <row r="44" spans="4:23">
       <c r="D44" s="1" t="s">
         <v>605</v>
       </c>
@@ -25618,8 +25666,11 @@
       <c r="V44" s="1" t="s">
         <v>3834</v>
       </c>
-    </row>
-    <row r="45" spans="4:22">
+      <c r="W44" s="1" t="s">
+        <v>3969</v>
+      </c>
+    </row>
+    <row r="45" spans="4:23">
       <c r="D45" s="1" t="s">
         <v>606</v>
       </c>
@@ -25668,8 +25719,11 @@
       <c r="V45" s="1" t="s">
         <v>3835</v>
       </c>
-    </row>
-    <row r="46" spans="4:22">
+      <c r="W45" s="1" t="s">
+        <v>3970</v>
+      </c>
+    </row>
+    <row r="46" spans="4:23">
       <c r="D46" s="1" t="s">
         <v>607</v>
       </c>
@@ -25718,8 +25772,11 @@
       <c r="V46" s="1" t="s">
         <v>3836</v>
       </c>
-    </row>
-    <row r="47" spans="4:22">
+      <c r="W46" s="1" t="s">
+        <v>3971</v>
+      </c>
+    </row>
+    <row r="47" spans="4:23">
       <c r="D47" s="1" t="s">
         <v>608</v>
       </c>
@@ -25768,8 +25825,11 @@
       <c r="V47" s="1" t="s">
         <v>3837</v>
       </c>
-    </row>
-    <row r="48" spans="4:22">
+      <c r="W47" s="1" t="s">
+        <v>3972</v>
+      </c>
+    </row>
+    <row r="48" spans="4:23">
       <c r="D48" s="1" t="s">
         <v>609</v>
       </c>
@@ -25815,8 +25875,11 @@
       <c r="V48" s="1" t="s">
         <v>3838</v>
       </c>
-    </row>
-    <row r="49" spans="4:22">
+      <c r="W48" s="1" t="s">
+        <v>3973</v>
+      </c>
+    </row>
+    <row r="49" spans="4:23">
       <c r="D49" s="1" t="s">
         <v>610</v>
       </c>
@@ -25862,8 +25925,11 @@
       <c r="V49" s="1" t="s">
         <v>3839</v>
       </c>
-    </row>
-    <row r="50" spans="4:22">
+      <c r="W49" s="1" t="s">
+        <v>3974</v>
+      </c>
+    </row>
+    <row r="50" spans="4:23">
       <c r="D50" s="1" t="s">
         <v>611</v>
       </c>
@@ -25910,7 +25976,7 @@
         <v>3840</v>
       </c>
     </row>
-    <row r="51" spans="4:22">
+    <row r="51" spans="4:23">
       <c r="D51" s="1" t="s">
         <v>612</v>
       </c>
@@ -25957,7 +26023,7 @@
         <v>3841</v>
       </c>
     </row>
-    <row r="52" spans="4:22">
+    <row r="52" spans="4:23">
       <c r="D52" s="1" t="s">
         <v>613</v>
       </c>
@@ -26004,7 +26070,7 @@
         <v>3842</v>
       </c>
     </row>
-    <row r="53" spans="4:22">
+    <row r="53" spans="4:23">
       <c r="D53" s="1" t="s">
         <v>614</v>
       </c>
@@ -26051,7 +26117,7 @@
         <v>3843</v>
       </c>
     </row>
-    <row r="54" spans="4:22">
+    <row r="54" spans="4:23">
       <c r="D54" s="1" t="s">
         <v>615</v>
       </c>
@@ -26098,7 +26164,7 @@
         <v>3844</v>
       </c>
     </row>
-    <row r="55" spans="4:22">
+    <row r="55" spans="4:23">
       <c r="D55" s="1" t="s">
         <v>616</v>
       </c>
@@ -26145,7 +26211,7 @@
         <v>3845</v>
       </c>
     </row>
-    <row r="56" spans="4:22">
+    <row r="56" spans="4:23">
       <c r="D56" s="1" t="s">
         <v>617</v>
       </c>
@@ -26192,7 +26258,7 @@
         <v>3846</v>
       </c>
     </row>
-    <row r="57" spans="4:22">
+    <row r="57" spans="4:23">
       <c r="D57" s="1" t="s">
         <v>618</v>
       </c>
@@ -26239,7 +26305,7 @@
         <v>3847</v>
       </c>
     </row>
-    <row r="58" spans="4:22">
+    <row r="58" spans="4:23">
       <c r="D58" s="1" t="s">
         <v>619</v>
       </c>
@@ -26286,7 +26352,7 @@
         <v>3848</v>
       </c>
     </row>
-    <row r="59" spans="4:22">
+    <row r="59" spans="4:23">
       <c r="D59" s="1" t="s">
         <v>620</v>
       </c>
@@ -26330,7 +26396,7 @@
         <v>3849</v>
       </c>
     </row>
-    <row r="60" spans="4:22">
+    <row r="60" spans="4:23">
       <c r="D60" s="1" t="s">
         <v>621</v>
       </c>
@@ -26374,7 +26440,7 @@
         <v>3850</v>
       </c>
     </row>
-    <row r="61" spans="4:22">
+    <row r="61" spans="4:23">
       <c r="D61" s="1" t="s">
         <v>622</v>
       </c>
@@ -26418,7 +26484,7 @@
         <v>3851</v>
       </c>
     </row>
-    <row r="62" spans="4:22">
+    <row r="62" spans="4:23">
       <c r="D62" s="1" t="s">
         <v>623</v>
       </c>
@@ -26462,7 +26528,7 @@
         <v>3926</v>
       </c>
     </row>
-    <row r="63" spans="4:22">
+    <row r="63" spans="4:23">
       <c r="D63" s="1" t="s">
         <v>624</v>
       </c>
@@ -26506,7 +26572,7 @@
         <v>3852</v>
       </c>
     </row>
-    <row r="64" spans="4:22">
+    <row r="64" spans="4:23">
       <c r="D64" s="1" t="s">
         <v>625</v>
       </c>
@@ -26722,6 +26788,9 @@
       <c r="U68" s="1" t="s">
         <v>3705</v>
       </c>
+      <c r="V68" s="1" t="s">
+        <v>3857</v>
+      </c>
     </row>
     <row r="69" spans="4:22">
       <c r="D69" s="1" t="s">
@@ -26763,6 +26832,9 @@
       <c r="U69" s="1" t="s">
         <v>3706</v>
       </c>
+      <c r="V69" s="1" t="s">
+        <v>3858</v>
+      </c>
     </row>
     <row r="70" spans="4:22">
       <c r="D70" s="1" t="s">
@@ -26804,6 +26876,9 @@
       <c r="U70" s="1" t="s">
         <v>3707</v>
       </c>
+      <c r="V70" s="1" t="s">
+        <v>3859</v>
+      </c>
     </row>
     <row r="71" spans="4:22">
       <c r="D71" s="1" t="s">
@@ -26842,6 +26917,9 @@
       <c r="U71" s="1" t="s">
         <v>3708</v>
       </c>
+      <c r="V71" s="1" t="s">
+        <v>3860</v>
+      </c>
     </row>
     <row r="72" spans="4:22">
       <c r="E72" s="5" t="s">
@@ -26877,6 +26955,9 @@
       <c r="U72" s="1" t="s">
         <v>3709</v>
       </c>
+      <c r="V72" s="1" t="s">
+        <v>3861</v>
+      </c>
     </row>
     <row r="73" spans="4:22">
       <c r="E73" s="5" t="s">
@@ -26915,6 +26996,9 @@
       <c r="U73" s="1" t="s">
         <v>3710</v>
       </c>
+      <c r="V73" s="1" t="s">
+        <v>3862</v>
+      </c>
     </row>
     <row r="74" spans="4:22">
       <c r="E74" s="5" t="s">
@@ -26953,6 +27037,9 @@
       <c r="U74" s="1" t="s">
         <v>3711</v>
       </c>
+      <c r="V74" s="1" t="s">
+        <v>3863</v>
+      </c>
     </row>
     <row r="75" spans="4:22">
       <c r="E75" s="5" t="s">
@@ -26991,6 +27078,9 @@
       <c r="U75" s="1" t="s">
         <v>3712</v>
       </c>
+      <c r="V75" s="1" t="s">
+        <v>3864</v>
+      </c>
     </row>
     <row r="76" spans="4:22">
       <c r="E76" s="5" t="s">
@@ -27029,6 +27119,9 @@
       <c r="U76" s="1" t="s">
         <v>3713</v>
       </c>
+      <c r="V76" s="1" t="s">
+        <v>3865</v>
+      </c>
     </row>
     <row r="77" spans="4:22">
       <c r="E77" s="5" t="s">
@@ -27067,6 +27160,9 @@
       <c r="U77" s="1" t="s">
         <v>3714</v>
       </c>
+      <c r="V77" s="1" t="s">
+        <v>3866</v>
+      </c>
     </row>
     <row r="78" spans="4:22">
       <c r="E78" s="5" t="s">
@@ -27105,6 +27201,9 @@
       <c r="U78" s="1" t="s">
         <v>3715</v>
       </c>
+      <c r="V78" s="1" t="s">
+        <v>3867</v>
+      </c>
     </row>
     <row r="79" spans="4:22">
       <c r="E79" s="5" t="s">
@@ -27143,6 +27242,9 @@
       <c r="U79" s="1" t="s">
         <v>3716</v>
       </c>
+      <c r="V79" s="1" t="s">
+        <v>3868</v>
+      </c>
     </row>
     <row r="80" spans="4:22">
       <c r="E80" s="5" t="s">
@@ -27181,8 +27283,11 @@
       <c r="U80" s="1" t="s">
         <v>3717</v>
       </c>
-    </row>
-    <row r="81" spans="5:21">
+      <c r="V80" s="1" t="s">
+        <v>3869</v>
+      </c>
+    </row>
+    <row r="81" spans="5:22">
       <c r="E81" s="1" t="s">
         <v>712</v>
       </c>
@@ -27219,8 +27324,11 @@
       <c r="U81" s="1" t="s">
         <v>3718</v>
       </c>
-    </row>
-    <row r="82" spans="5:21">
+      <c r="V81" s="1" t="s">
+        <v>3870</v>
+      </c>
+    </row>
+    <row r="82" spans="5:22">
       <c r="E82" s="1" t="s">
         <v>713</v>
       </c>
@@ -27257,8 +27365,11 @@
       <c r="U82" s="1" t="s">
         <v>3719</v>
       </c>
-    </row>
-    <row r="83" spans="5:21">
+      <c r="V82" s="1" t="s">
+        <v>3871</v>
+      </c>
+    </row>
+    <row r="83" spans="5:22">
       <c r="E83" s="1" t="s">
         <v>714</v>
       </c>
@@ -27295,8 +27406,11 @@
       <c r="U83" s="1" t="s">
         <v>3720</v>
       </c>
-    </row>
-    <row r="84" spans="5:21">
+      <c r="V83" s="1" t="s">
+        <v>3872</v>
+      </c>
+    </row>
+    <row r="84" spans="5:22">
       <c r="E84" s="1" t="s">
         <v>715</v>
       </c>
@@ -27333,8 +27447,11 @@
       <c r="U84" s="1" t="s">
         <v>3721</v>
       </c>
-    </row>
-    <row r="85" spans="5:21">
+      <c r="V84" s="1" t="s">
+        <v>3873</v>
+      </c>
+    </row>
+    <row r="85" spans="5:22">
       <c r="E85" s="1" t="s">
         <v>716</v>
       </c>
@@ -27371,8 +27488,11 @@
       <c r="U85" s="1" t="s">
         <v>3722</v>
       </c>
-    </row>
-    <row r="86" spans="5:21">
+      <c r="V85" s="1" t="s">
+        <v>3874</v>
+      </c>
+    </row>
+    <row r="86" spans="5:22">
       <c r="E86" s="1" t="s">
         <v>717</v>
       </c>
@@ -27409,8 +27529,11 @@
       <c r="U86" s="1" t="s">
         <v>3723</v>
       </c>
-    </row>
-    <row r="87" spans="5:21">
+      <c r="V86" s="1" t="s">
+        <v>3875</v>
+      </c>
+    </row>
+    <row r="87" spans="5:22">
       <c r="E87" s="1" t="s">
         <v>718</v>
       </c>
@@ -27447,8 +27570,11 @@
       <c r="U87" s="1" t="s">
         <v>3724</v>
       </c>
-    </row>
-    <row r="88" spans="5:21">
+      <c r="V87" s="1" t="s">
+        <v>3876</v>
+      </c>
+    </row>
+    <row r="88" spans="5:22">
       <c r="E88" s="1" t="s">
         <v>719</v>
       </c>
@@ -27485,8 +27611,11 @@
       <c r="U88" s="1" t="s">
         <v>3725</v>
       </c>
-    </row>
-    <row r="89" spans="5:21">
+      <c r="V88" s="1" t="s">
+        <v>3877</v>
+      </c>
+    </row>
+    <row r="89" spans="5:22">
       <c r="E89" s="1" t="s">
         <v>720</v>
       </c>
@@ -27520,8 +27649,11 @@
       <c r="U89" s="1" t="s">
         <v>3726</v>
       </c>
-    </row>
-    <row r="90" spans="5:21">
+      <c r="V89" s="1" t="s">
+        <v>3878</v>
+      </c>
+    </row>
+    <row r="90" spans="5:22">
       <c r="E90" s="1" t="s">
         <v>721</v>
       </c>
@@ -27555,8 +27687,11 @@
       <c r="U90" s="1" t="s">
         <v>3727</v>
       </c>
-    </row>
-    <row r="91" spans="5:21">
+      <c r="V90" s="1" t="s">
+        <v>3879</v>
+      </c>
+    </row>
+    <row r="91" spans="5:22">
       <c r="E91" s="1" t="s">
         <v>722</v>
       </c>
@@ -27590,8 +27725,11 @@
       <c r="U91" s="1" t="s">
         <v>3728</v>
       </c>
-    </row>
-    <row r="92" spans="5:21">
+      <c r="V91" s="1" t="s">
+        <v>3880</v>
+      </c>
+    </row>
+    <row r="92" spans="5:22">
       <c r="E92" s="1" t="s">
         <v>723</v>
       </c>
@@ -27625,8 +27763,11 @@
       <c r="U92" s="1" t="s">
         <v>3729</v>
       </c>
-    </row>
-    <row r="93" spans="5:21">
+      <c r="V92" s="1" t="s">
+        <v>3881</v>
+      </c>
+    </row>
+    <row r="93" spans="5:22">
       <c r="E93" s="1" t="s">
         <v>724</v>
       </c>
@@ -27660,8 +27801,11 @@
       <c r="U93" s="1" t="s">
         <v>3730</v>
       </c>
-    </row>
-    <row r="94" spans="5:21">
+      <c r="V93" s="1" t="s">
+        <v>3882</v>
+      </c>
+    </row>
+    <row r="94" spans="5:22">
       <c r="E94" s="1" t="s">
         <v>725</v>
       </c>
@@ -27695,8 +27839,11 @@
       <c r="U94" s="1" t="s">
         <v>3731</v>
       </c>
-    </row>
-    <row r="95" spans="5:21">
+      <c r="V94" s="1" t="s">
+        <v>3883</v>
+      </c>
+    </row>
+    <row r="95" spans="5:22">
       <c r="E95" s="1" t="s">
         <v>726</v>
       </c>
@@ -27730,8 +27877,11 @@
       <c r="U95" s="1" t="s">
         <v>3732</v>
       </c>
-    </row>
-    <row r="96" spans="5:21">
+      <c r="V95" s="1" t="s">
+        <v>3884</v>
+      </c>
+    </row>
+    <row r="96" spans="5:22">
       <c r="E96" s="1" t="s">
         <v>727</v>
       </c>
@@ -27765,8 +27915,11 @@
       <c r="U96" s="1" t="s">
         <v>3733</v>
       </c>
-    </row>
-    <row r="97" spans="5:21">
+      <c r="V96" s="1" t="s">
+        <v>3885</v>
+      </c>
+    </row>
+    <row r="97" spans="5:22">
       <c r="E97" s="1" t="s">
         <v>728</v>
       </c>
@@ -27800,8 +27953,11 @@
       <c r="U97" s="1" t="s">
         <v>3734</v>
       </c>
-    </row>
-    <row r="98" spans="5:21">
+      <c r="V97" s="1" t="s">
+        <v>3886</v>
+      </c>
+    </row>
+    <row r="98" spans="5:22">
       <c r="E98" s="1" t="s">
         <v>729</v>
       </c>
@@ -27835,8 +27991,11 @@
       <c r="U98" s="1" t="s">
         <v>3735</v>
       </c>
-    </row>
-    <row r="99" spans="5:21">
+      <c r="V98" s="1" t="s">
+        <v>3887</v>
+      </c>
+    </row>
+    <row r="99" spans="5:22">
       <c r="E99" s="1" t="s">
         <v>730</v>
       </c>
@@ -27870,8 +28029,11 @@
       <c r="U99" s="1" t="s">
         <v>3736</v>
       </c>
-    </row>
-    <row r="100" spans="5:21">
+      <c r="V99" s="1" t="s">
+        <v>3888</v>
+      </c>
+    </row>
+    <row r="100" spans="5:22">
       <c r="E100" s="1" t="s">
         <v>731</v>
       </c>
@@ -27905,8 +28067,11 @@
       <c r="U100" s="1" t="s">
         <v>3737</v>
       </c>
-    </row>
-    <row r="101" spans="5:21">
+      <c r="V100" s="1" t="s">
+        <v>3889</v>
+      </c>
+    </row>
+    <row r="101" spans="5:22">
       <c r="E101" s="1" t="s">
         <v>732</v>
       </c>
@@ -27940,8 +28105,11 @@
       <c r="U101" s="1" t="s">
         <v>3738</v>
       </c>
-    </row>
-    <row r="102" spans="5:21">
+      <c r="V101" s="1" t="s">
+        <v>3890</v>
+      </c>
+    </row>
+    <row r="102" spans="5:22">
       <c r="E102" s="1" t="s">
         <v>733</v>
       </c>
@@ -27975,8 +28143,11 @@
       <c r="U102" s="1" t="s">
         <v>3739</v>
       </c>
-    </row>
-    <row r="103" spans="5:21">
+      <c r="V102" s="1" t="s">
+        <v>3891</v>
+      </c>
+    </row>
+    <row r="103" spans="5:22">
       <c r="E103" s="1" t="s">
         <v>734</v>
       </c>
@@ -28010,8 +28181,11 @@
       <c r="U103" s="1" t="s">
         <v>3740</v>
       </c>
-    </row>
-    <row r="104" spans="5:21">
+      <c r="V103" s="1" t="s">
+        <v>3892</v>
+      </c>
+    </row>
+    <row r="104" spans="5:22">
       <c r="E104" s="1" t="s">
         <v>735</v>
       </c>
@@ -28045,8 +28219,11 @@
       <c r="U104" s="1" t="s">
         <v>3741</v>
       </c>
-    </row>
-    <row r="105" spans="5:21">
+      <c r="V104" s="1" t="s">
+        <v>3893</v>
+      </c>
+    </row>
+    <row r="105" spans="5:22">
       <c r="E105" s="1" t="s">
         <v>736</v>
       </c>
@@ -28080,8 +28257,11 @@
       <c r="U105" s="1" t="s">
         <v>3742</v>
       </c>
-    </row>
-    <row r="106" spans="5:21">
+      <c r="V105" s="1" t="s">
+        <v>3894</v>
+      </c>
+    </row>
+    <row r="106" spans="5:22">
       <c r="E106" s="1" t="s">
         <v>737</v>
       </c>
@@ -28115,8 +28295,11 @@
       <c r="U106" s="1" t="s">
         <v>3743</v>
       </c>
-    </row>
-    <row r="107" spans="5:21">
+      <c r="V106" s="1" t="s">
+        <v>3895</v>
+      </c>
+    </row>
+    <row r="107" spans="5:22">
       <c r="E107" s="1" t="s">
         <v>738</v>
       </c>
@@ -28150,8 +28333,11 @@
       <c r="U107" s="1" t="s">
         <v>3744</v>
       </c>
-    </row>
-    <row r="108" spans="5:21">
+      <c r="V107" s="1" t="s">
+        <v>3896</v>
+      </c>
+    </row>
+    <row r="108" spans="5:22">
       <c r="E108" s="1" t="s">
         <v>739</v>
       </c>
@@ -28185,8 +28371,11 @@
       <c r="U108" s="1" t="s">
         <v>3745</v>
       </c>
-    </row>
-    <row r="109" spans="5:21">
+      <c r="V108" s="1" t="s">
+        <v>3897</v>
+      </c>
+    </row>
+    <row r="109" spans="5:22">
       <c r="E109" s="1" t="s">
         <v>740</v>
       </c>
@@ -28220,8 +28409,11 @@
       <c r="U109" s="1" t="s">
         <v>3746</v>
       </c>
-    </row>
-    <row r="110" spans="5:21">
+      <c r="V109" s="1" t="s">
+        <v>3898</v>
+      </c>
+    </row>
+    <row r="110" spans="5:22">
       <c r="E110" s="1" t="s">
         <v>741</v>
       </c>
@@ -28255,8 +28447,11 @@
       <c r="U110" s="1" t="s">
         <v>3747</v>
       </c>
-    </row>
-    <row r="111" spans="5:21">
+      <c r="V110" s="1" t="s">
+        <v>3899</v>
+      </c>
+    </row>
+    <row r="111" spans="5:22">
       <c r="E111" s="1" t="s">
         <v>742</v>
       </c>
@@ -28290,8 +28485,11 @@
       <c r="U111" s="1" t="s">
         <v>3748</v>
       </c>
-    </row>
-    <row r="112" spans="5:21">
+      <c r="V111" s="1" t="s">
+        <v>3900</v>
+      </c>
+    </row>
+    <row r="112" spans="5:22">
       <c r="E112" s="1" t="s">
         <v>743</v>
       </c>
@@ -28325,8 +28523,11 @@
       <c r="U112" s="1" t="s">
         <v>3749</v>
       </c>
-    </row>
-    <row r="113" spans="5:21">
+      <c r="V112" s="1" t="s">
+        <v>3901</v>
+      </c>
+    </row>
+    <row r="113" spans="5:22">
       <c r="E113" s="1" t="s">
         <v>744</v>
       </c>
@@ -28360,8 +28561,11 @@
       <c r="U113" s="1" t="s">
         <v>3750</v>
       </c>
-    </row>
-    <row r="114" spans="5:21">
+      <c r="V113" s="1" t="s">
+        <v>3902</v>
+      </c>
+    </row>
+    <row r="114" spans="5:22">
       <c r="E114" s="1" t="s">
         <v>745</v>
       </c>
@@ -28392,8 +28596,11 @@
       <c r="U114" s="1" t="s">
         <v>3751</v>
       </c>
-    </row>
-    <row r="115" spans="5:21">
+      <c r="V114" s="1" t="s">
+        <v>3903</v>
+      </c>
+    </row>
+    <row r="115" spans="5:22">
       <c r="E115" s="1" t="s">
         <v>746</v>
       </c>
@@ -28424,8 +28631,11 @@
       <c r="U115" s="1" t="s">
         <v>3752</v>
       </c>
-    </row>
-    <row r="116" spans="5:21">
+      <c r="V115" s="1" t="s">
+        <v>3904</v>
+      </c>
+    </row>
+    <row r="116" spans="5:22">
       <c r="E116" s="1" t="s">
         <v>747</v>
       </c>
@@ -28456,8 +28666,11 @@
       <c r="U116" s="1" t="s">
         <v>3753</v>
       </c>
-    </row>
-    <row r="117" spans="5:21">
+      <c r="V116" s="1" t="s">
+        <v>3905</v>
+      </c>
+    </row>
+    <row r="117" spans="5:22">
       <c r="E117" s="1" t="s">
         <v>748</v>
       </c>
@@ -28488,8 +28701,11 @@
       <c r="U117" s="1" t="s">
         <v>3754</v>
       </c>
-    </row>
-    <row r="118" spans="5:21">
+      <c r="V117" s="1" t="s">
+        <v>3906</v>
+      </c>
+    </row>
+    <row r="118" spans="5:22">
       <c r="E118" s="1" t="s">
         <v>749</v>
       </c>
@@ -28520,8 +28736,11 @@
       <c r="U118" s="1" t="s">
         <v>3755</v>
       </c>
-    </row>
-    <row r="119" spans="5:21">
+      <c r="V118" s="1" t="s">
+        <v>3907</v>
+      </c>
+    </row>
+    <row r="119" spans="5:22">
       <c r="E119" s="1" t="s">
         <v>750</v>
       </c>
@@ -28552,8 +28771,11 @@
       <c r="U119" s="1" t="s">
         <v>3756</v>
       </c>
-    </row>
-    <row r="120" spans="5:21">
+      <c r="V119" s="1" t="s">
+        <v>3908</v>
+      </c>
+    </row>
+    <row r="120" spans="5:22">
       <c r="E120" s="1" t="s">
         <v>751</v>
       </c>
@@ -28584,8 +28806,11 @@
       <c r="U120" s="1" t="s">
         <v>3757</v>
       </c>
-    </row>
-    <row r="121" spans="5:21">
+      <c r="V120" s="1" t="s">
+        <v>3909</v>
+      </c>
+    </row>
+    <row r="121" spans="5:22">
       <c r="E121" s="1" t="s">
         <v>752</v>
       </c>
@@ -28616,8 +28841,11 @@
       <c r="U121" s="1" t="s">
         <v>3758</v>
       </c>
-    </row>
-    <row r="122" spans="5:21">
+      <c r="V121" s="1" t="s">
+        <v>3910</v>
+      </c>
+    </row>
+    <row r="122" spans="5:22">
       <c r="E122" s="1" t="s">
         <v>753</v>
       </c>
@@ -28648,8 +28876,11 @@
       <c r="U122" s="1" t="s">
         <v>3759</v>
       </c>
-    </row>
-    <row r="123" spans="5:21">
+      <c r="V122" s="1" t="s">
+        <v>3911</v>
+      </c>
+    </row>
+    <row r="123" spans="5:22">
       <c r="E123" s="1" t="s">
         <v>754</v>
       </c>
@@ -28680,8 +28911,11 @@
       <c r="U123" s="1" t="s">
         <v>3760</v>
       </c>
-    </row>
-    <row r="124" spans="5:21">
+      <c r="V123" s="1" t="s">
+        <v>3912</v>
+      </c>
+    </row>
+    <row r="124" spans="5:22">
       <c r="E124" s="1" t="s">
         <v>755</v>
       </c>
@@ -28712,8 +28946,11 @@
       <c r="U124" s="1" t="s">
         <v>3761</v>
       </c>
-    </row>
-    <row r="125" spans="5:21">
+      <c r="V124" s="1" t="s">
+        <v>3913</v>
+      </c>
+    </row>
+    <row r="125" spans="5:22">
       <c r="E125" s="1" t="s">
         <v>756</v>
       </c>
@@ -28744,8 +28981,11 @@
       <c r="U125" s="1" t="s">
         <v>3762</v>
       </c>
-    </row>
-    <row r="126" spans="5:21">
+      <c r="V125" s="1" t="s">
+        <v>3914</v>
+      </c>
+    </row>
+    <row r="126" spans="5:22">
       <c r="E126" s="1" t="s">
         <v>757</v>
       </c>
@@ -28776,8 +29016,11 @@
       <c r="U126" s="1" t="s">
         <v>3763</v>
       </c>
-    </row>
-    <row r="127" spans="5:21">
+      <c r="V126" s="1" t="s">
+        <v>3915</v>
+      </c>
+    </row>
+    <row r="127" spans="5:22">
       <c r="E127" s="1" t="s">
         <v>758</v>
       </c>
@@ -28808,8 +29051,11 @@
       <c r="U127" s="1" t="s">
         <v>3764</v>
       </c>
-    </row>
-    <row r="128" spans="5:21">
+      <c r="V127" s="1" t="s">
+        <v>3916</v>
+      </c>
+    </row>
+    <row r="128" spans="5:22">
       <c r="E128" s="1" t="s">
         <v>759</v>
       </c>
@@ -28840,8 +29086,11 @@
       <c r="U128" s="1" t="s">
         <v>3765</v>
       </c>
-    </row>
-    <row r="129" spans="5:21">
+      <c r="V128" s="1" t="s">
+        <v>3917</v>
+      </c>
+    </row>
+    <row r="129" spans="5:22">
       <c r="E129" s="1" t="s">
         <v>760</v>
       </c>
@@ -28872,8 +29121,11 @@
       <c r="U129" s="1" t="s">
         <v>3766</v>
       </c>
-    </row>
-    <row r="130" spans="5:21">
+      <c r="V129" s="1" t="s">
+        <v>3918</v>
+      </c>
+    </row>
+    <row r="130" spans="5:22">
       <c r="E130" s="1" t="s">
         <v>761</v>
       </c>
@@ -28904,8 +29156,11 @@
       <c r="U130" s="1" t="s">
         <v>3767</v>
       </c>
-    </row>
-    <row r="131" spans="5:21">
+      <c r="V130" s="1" t="s">
+        <v>3919</v>
+      </c>
+    </row>
+    <row r="131" spans="5:22">
       <c r="E131" s="1" t="s">
         <v>762</v>
       </c>
@@ -28936,8 +29191,11 @@
       <c r="U131" s="1" t="s">
         <v>3768</v>
       </c>
-    </row>
-    <row r="132" spans="5:21">
+      <c r="V131" s="1" t="s">
+        <v>3920</v>
+      </c>
+    </row>
+    <row r="132" spans="5:22">
       <c r="E132" s="1" t="s">
         <v>763</v>
       </c>
@@ -28968,8 +29226,11 @@
       <c r="U132" s="1" t="s">
         <v>3769</v>
       </c>
-    </row>
-    <row r="133" spans="5:21">
+      <c r="V132" s="1" t="s">
+        <v>3921</v>
+      </c>
+    </row>
+    <row r="133" spans="5:22">
       <c r="E133" s="1" t="s">
         <v>764</v>
       </c>
@@ -29000,8 +29261,11 @@
       <c r="U133" s="1" t="s">
         <v>3770</v>
       </c>
-    </row>
-    <row r="134" spans="5:21">
+      <c r="V133" s="1" t="s">
+        <v>3922</v>
+      </c>
+    </row>
+    <row r="134" spans="5:22">
       <c r="E134" s="1" t="s">
         <v>765</v>
       </c>
@@ -29032,8 +29296,11 @@
       <c r="U134" s="1" t="s">
         <v>3771</v>
       </c>
-    </row>
-    <row r="135" spans="5:21">
+      <c r="V134" s="1" t="s">
+        <v>3923</v>
+      </c>
+    </row>
+    <row r="135" spans="5:22">
       <c r="E135" s="1" t="s">
         <v>766</v>
       </c>
@@ -29064,8 +29331,11 @@
       <c r="U135" s="1" t="s">
         <v>3772</v>
       </c>
-    </row>
-    <row r="136" spans="5:21">
+      <c r="V135" s="1" t="s">
+        <v>3924</v>
+      </c>
+    </row>
+    <row r="136" spans="5:22">
       <c r="E136" s="1" t="s">
         <v>767</v>
       </c>
@@ -29096,8 +29366,11 @@
       <c r="U136" s="1" t="s">
         <v>3773</v>
       </c>
-    </row>
-    <row r="137" spans="5:21">
+      <c r="V136" s="1" t="s">
+        <v>3925</v>
+      </c>
+    </row>
+    <row r="137" spans="5:22">
       <c r="E137" s="1" t="s">
         <v>768</v>
       </c>
@@ -29129,7 +29402,7 @@
         <v>3774</v>
       </c>
     </row>
-    <row r="138" spans="5:21">
+    <row r="138" spans="5:22">
       <c r="E138" s="1" t="s">
         <v>769</v>
       </c>
@@ -29161,7 +29434,7 @@
         <v>3775</v>
       </c>
     </row>
-    <row r="139" spans="5:21">
+    <row r="139" spans="5:22">
       <c r="E139" s="1" t="s">
         <v>770</v>
       </c>
@@ -29193,7 +29466,7 @@
         <v>3776</v>
       </c>
     </row>
-    <row r="140" spans="5:21">
+    <row r="140" spans="5:22">
       <c r="E140" s="1" t="s">
         <v>771</v>
       </c>
@@ -29225,7 +29498,7 @@
         <v>3777</v>
       </c>
     </row>
-    <row r="141" spans="5:21">
+    <row r="141" spans="5:22">
       <c r="E141" s="1" t="s">
         <v>772</v>
       </c>
@@ -29257,7 +29530,7 @@
         <v>3778</v>
       </c>
     </row>
-    <row r="142" spans="5:21">
+    <row r="142" spans="5:22">
       <c r="E142" s="1" t="s">
         <v>773</v>
       </c>
@@ -29289,7 +29562,7 @@
         <v>3779</v>
       </c>
     </row>
-    <row r="143" spans="5:21">
+    <row r="143" spans="5:22">
       <c r="E143" s="1" t="s">
         <v>774</v>
       </c>
@@ -29321,7 +29594,7 @@
         <v>3780</v>
       </c>
     </row>
-    <row r="144" spans="5:21">
+    <row r="144" spans="5:22">
       <c r="E144" s="1" t="s">
         <v>775</v>
       </c>
@@ -34320,6 +34593,9 @@
       </c>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="W8:W49">
+    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Autostockin/ยิงรับ 49.xlsx
+++ b/Autostockin/ยิงรับ 49.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Workstuff\my-work-python-script\Autostockin\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BC1C4A9-86CF-4FDA-B9D6-6356D42B2D13}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0C4C389-B87C-4BCF-90F3-3440B5B656E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11025" yWindow="1425" windowWidth="21600" windowHeight="11295" activeTab="2" xr2:uid="{47EFCF22-5A4D-4004-9D3D-F4E18B203E38}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{47EFCF22-5A4D-4004-9D3D-F4E18B203E38}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5389" uniqueCount="3987">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5422" uniqueCount="4020">
   <si>
     <t xml:space="preserve">Bill Type: </t>
   </si>
@@ -11999,6 +11999,105 @@
   </si>
   <si>
     <t>+13677-240</t>
+  </si>
+  <si>
+    <t>+2922-1363</t>
+  </si>
+  <si>
+    <t>+1411-1100</t>
+  </si>
+  <si>
+    <t>+28587-131</t>
+  </si>
+  <si>
+    <t>+604-580</t>
+  </si>
+  <si>
+    <t>+780-786</t>
+  </si>
+  <si>
+    <t>+9248-485</t>
+  </si>
+  <si>
+    <t>+20334-104</t>
+  </si>
+  <si>
+    <t>+9058-300</t>
+  </si>
+  <si>
+    <t>+1807-854</t>
+  </si>
+  <si>
+    <t>+746-850</t>
+  </si>
+  <si>
+    <t>+5341-318</t>
+  </si>
+  <si>
+    <t>+2152-1381</t>
+  </si>
+  <si>
+    <t>+1172-1275</t>
+  </si>
+  <si>
+    <t>+15871-85</t>
+  </si>
+  <si>
+    <t>+359-2079</t>
+  </si>
+  <si>
+    <t>+871-1174</t>
+  </si>
+  <si>
+    <t>+13853-293</t>
+  </si>
+  <si>
+    <t>+4583-465</t>
+  </si>
+  <si>
+    <t>+36568-166</t>
+  </si>
+  <si>
+    <t>+18017-280</t>
+  </si>
+  <si>
+    <t>+417-804</t>
+  </si>
+  <si>
+    <t>+423-596</t>
+  </si>
+  <si>
+    <t>+835-2133</t>
+  </si>
+  <si>
+    <t>+1098-2075</t>
+  </si>
+  <si>
+    <t>+17140-277</t>
+  </si>
+  <si>
+    <t>+3015-790</t>
+  </si>
+  <si>
+    <t>+782-1476</t>
+  </si>
+  <si>
+    <t>+23004-207</t>
+  </si>
+  <si>
+    <t>+9043-486</t>
+  </si>
+  <si>
+    <t>+1012-578</t>
+  </si>
+  <si>
+    <t>+5666-694</t>
+  </si>
+  <si>
+    <t>+1627-979</t>
+  </si>
+  <si>
+    <t>+0037-569</t>
   </si>
 </sst>
 </file>
@@ -12387,7 +12486,7 @@
   <dimension ref="A1:G108"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A1:A3"/>
+      <selection sqref="A1:A33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -23110,10 +23209,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{37C21679-A84C-4371-A1C5-AF880A10BEAA}">
-  <dimension ref="A1:X491"/>
+  <dimension ref="A1:Y491"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="V1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="X12" sqref="X12:X13"/>
+      <selection activeCell="Y2" sqref="Y2:Y34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -23128,7 +23227,7 @@
     <col min="21" max="22" width="9.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24">
+    <row r="1" spans="1:25">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -23198,8 +23297,11 @@
       <c r="X1" s="4">
         <v>44806</v>
       </c>
-    </row>
-    <row r="2" spans="1:24">
+      <c r="Y1" s="4">
+        <v>44809</v>
+      </c>
+    </row>
+    <row r="2" spans="1:25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -23269,8 +23371,11 @@
       <c r="X2" s="1" t="s">
         <v>3975</v>
       </c>
-    </row>
-    <row r="3" spans="1:24">
+      <c r="Y2" s="1" t="s">
+        <v>3987</v>
+      </c>
+    </row>
+    <row r="3" spans="1:25">
       <c r="C3" s="1" t="s">
         <v>543</v>
       </c>
@@ -23337,8 +23442,11 @@
       <c r="X3" s="1" t="s">
         <v>3976</v>
       </c>
-    </row>
-    <row r="4" spans="1:24">
+      <c r="Y3" s="1" t="s">
+        <v>3988</v>
+      </c>
+    </row>
+    <row r="4" spans="1:25">
       <c r="C4" s="1" t="s">
         <v>544</v>
       </c>
@@ -23405,8 +23513,11 @@
       <c r="X4" s="1" t="s">
         <v>3977</v>
       </c>
-    </row>
-    <row r="5" spans="1:24">
+      <c r="Y4" s="1" t="s">
+        <v>3989</v>
+      </c>
+    </row>
+    <row r="5" spans="1:25">
       <c r="C5" s="1" t="s">
         <v>545</v>
       </c>
@@ -23470,8 +23581,11 @@
       <c r="X5" s="1" t="s">
         <v>3978</v>
       </c>
-    </row>
-    <row r="6" spans="1:24">
+      <c r="Y5" s="1" t="s">
+        <v>3990</v>
+      </c>
+    </row>
+    <row r="6" spans="1:25">
       <c r="C6" s="1" t="s">
         <v>546</v>
       </c>
@@ -23535,8 +23649,11 @@
       <c r="X6" s="1" t="s">
         <v>3979</v>
       </c>
-    </row>
-    <row r="7" spans="1:24">
+      <c r="Y6" s="1" t="s">
+        <v>3991</v>
+      </c>
+    </row>
+    <row r="7" spans="1:25">
       <c r="C7" s="1" t="s">
         <v>547</v>
       </c>
@@ -23600,8 +23717,11 @@
       <c r="X7" s="1" t="s">
         <v>3980</v>
       </c>
-    </row>
-    <row r="8" spans="1:24">
+      <c r="Y7" s="1" t="s">
+        <v>3992</v>
+      </c>
+    </row>
+    <row r="8" spans="1:25">
       <c r="C8" s="1" t="s">
         <v>548</v>
       </c>
@@ -23665,8 +23785,11 @@
       <c r="X8" s="1" t="s">
         <v>3981</v>
       </c>
-    </row>
-    <row r="9" spans="1:24">
+      <c r="Y8" s="1" t="s">
+        <v>3993</v>
+      </c>
+    </row>
+    <row r="9" spans="1:25">
       <c r="C9" s="1" t="s">
         <v>549</v>
       </c>
@@ -23730,8 +23853,11 @@
       <c r="X9" s="1" t="s">
         <v>3982</v>
       </c>
-    </row>
-    <row r="10" spans="1:24">
+      <c r="Y9" s="1" t="s">
+        <v>3994</v>
+      </c>
+    </row>
+    <row r="10" spans="1:25">
       <c r="C10" s="1" t="s">
         <v>550</v>
       </c>
@@ -23795,8 +23921,11 @@
       <c r="X10" s="1" t="s">
         <v>3983</v>
       </c>
-    </row>
-    <row r="11" spans="1:24">
+      <c r="Y10" s="1" t="s">
+        <v>3995</v>
+      </c>
+    </row>
+    <row r="11" spans="1:25">
       <c r="C11" s="1" t="s">
         <v>551</v>
       </c>
@@ -23860,8 +23989,11 @@
       <c r="X11" s="1" t="s">
         <v>3984</v>
       </c>
-    </row>
-    <row r="12" spans="1:24">
+      <c r="Y11" s="1" t="s">
+        <v>3996</v>
+      </c>
+    </row>
+    <row r="12" spans="1:25">
       <c r="C12" s="1" t="s">
         <v>552</v>
       </c>
@@ -23925,8 +24057,11 @@
       <c r="X12" s="1" t="s">
         <v>3985</v>
       </c>
-    </row>
-    <row r="13" spans="1:24">
+      <c r="Y12" s="1" t="s">
+        <v>3997</v>
+      </c>
+    </row>
+    <row r="13" spans="1:25">
       <c r="C13" s="1" t="s">
         <v>553</v>
       </c>
@@ -23990,8 +24125,11 @@
       <c r="X13" s="1" t="s">
         <v>3986</v>
       </c>
-    </row>
-    <row r="14" spans="1:24">
+      <c r="Y13" s="1" t="s">
+        <v>3998</v>
+      </c>
+    </row>
+    <row r="14" spans="1:25">
       <c r="C14" s="1" t="s">
         <v>554</v>
       </c>
@@ -24049,8 +24187,11 @@
       <c r="W14" s="1" t="s">
         <v>3939</v>
       </c>
-    </row>
-    <row r="15" spans="1:24">
+      <c r="Y14" s="1" t="s">
+        <v>3999</v>
+      </c>
+    </row>
+    <row r="15" spans="1:25">
       <c r="C15" s="1" t="s">
         <v>555</v>
       </c>
@@ -24108,8 +24249,11 @@
       <c r="W15" s="1" t="s">
         <v>3940</v>
       </c>
-    </row>
-    <row r="16" spans="1:24">
+      <c r="Y15" s="1" t="s">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="16" spans="1:25">
       <c r="C16" s="1" t="s">
         <v>556</v>
       </c>
@@ -24164,8 +24308,11 @@
       <c r="W16" s="1" t="s">
         <v>3941</v>
       </c>
-    </row>
-    <row r="17" spans="3:23">
+      <c r="Y16" s="1" t="s">
+        <v>4001</v>
+      </c>
+    </row>
+    <row r="17" spans="3:25">
       <c r="C17" s="1" t="s">
         <v>557</v>
       </c>
@@ -24220,8 +24367,11 @@
       <c r="W17" s="1" t="s">
         <v>3942</v>
       </c>
-    </row>
-    <row r="18" spans="3:23">
+      <c r="Y17" s="1" t="s">
+        <v>4002</v>
+      </c>
+    </row>
+    <row r="18" spans="3:25">
       <c r="C18" s="1" t="s">
         <v>558</v>
       </c>
@@ -24276,8 +24426,11 @@
       <c r="W18" s="1" t="s">
         <v>3943</v>
       </c>
-    </row>
-    <row r="19" spans="3:23">
+      <c r="Y18" s="1" t="s">
+        <v>4003</v>
+      </c>
+    </row>
+    <row r="19" spans="3:25">
       <c r="C19" s="1" t="s">
         <v>559</v>
       </c>
@@ -24332,8 +24485,11 @@
       <c r="W19" s="1" t="s">
         <v>3944</v>
       </c>
-    </row>
-    <row r="20" spans="3:23">
+      <c r="Y19" s="1" t="s">
+        <v>4004</v>
+      </c>
+    </row>
+    <row r="20" spans="3:25">
       <c r="C20" s="1" t="s">
         <v>560</v>
       </c>
@@ -24388,8 +24544,11 @@
       <c r="W20" s="1" t="s">
         <v>3945</v>
       </c>
-    </row>
-    <row r="21" spans="3:23">
+      <c r="Y20" s="1" t="s">
+        <v>4005</v>
+      </c>
+    </row>
+    <row r="21" spans="3:25">
       <c r="C21" s="1" t="s">
         <v>561</v>
       </c>
@@ -24444,8 +24603,11 @@
       <c r="W21" s="1" t="s">
         <v>3946</v>
       </c>
-    </row>
-    <row r="22" spans="3:23">
+      <c r="Y21" s="1" t="s">
+        <v>4006</v>
+      </c>
+    </row>
+    <row r="22" spans="3:25">
       <c r="C22" s="1" t="s">
         <v>562</v>
       </c>
@@ -24500,8 +24662,11 @@
       <c r="W22" s="1" t="s">
         <v>3947</v>
       </c>
-    </row>
-    <row r="23" spans="3:23">
+      <c r="Y22" s="1" t="s">
+        <v>4007</v>
+      </c>
+    </row>
+    <row r="23" spans="3:25">
       <c r="C23" s="1" t="s">
         <v>563</v>
       </c>
@@ -24556,8 +24721,11 @@
       <c r="W23" s="1" t="s">
         <v>3948</v>
       </c>
-    </row>
-    <row r="24" spans="3:23">
+      <c r="Y23" s="1" t="s">
+        <v>4008</v>
+      </c>
+    </row>
+    <row r="24" spans="3:25">
       <c r="D24" s="1" t="s">
         <v>585</v>
       </c>
@@ -24609,8 +24777,11 @@
       <c r="W24" s="1" t="s">
         <v>3949</v>
       </c>
-    </row>
-    <row r="25" spans="3:23">
+      <c r="Y24" s="1" t="s">
+        <v>4009</v>
+      </c>
+    </row>
+    <row r="25" spans="3:25">
       <c r="D25" s="1" t="s">
         <v>586</v>
       </c>
@@ -24662,8 +24833,11 @@
       <c r="W25" s="1" t="s">
         <v>3950</v>
       </c>
-    </row>
-    <row r="26" spans="3:23">
+      <c r="Y25" s="1" t="s">
+        <v>4010</v>
+      </c>
+    </row>
+    <row r="26" spans="3:25">
       <c r="D26" s="1" t="s">
         <v>587</v>
       </c>
@@ -24715,8 +24889,11 @@
       <c r="W26" s="1" t="s">
         <v>3951</v>
       </c>
-    </row>
-    <row r="27" spans="3:23">
+      <c r="Y26" s="1" t="s">
+        <v>4011</v>
+      </c>
+    </row>
+    <row r="27" spans="3:25">
       <c r="D27" s="1" t="s">
         <v>588</v>
       </c>
@@ -24768,8 +24945,11 @@
       <c r="W27" s="1" t="s">
         <v>3952</v>
       </c>
-    </row>
-    <row r="28" spans="3:23">
+      <c r="Y27" s="1" t="s">
+        <v>4012</v>
+      </c>
+    </row>
+    <row r="28" spans="3:25">
       <c r="D28" s="1" t="s">
         <v>589</v>
       </c>
@@ -24821,8 +25001,11 @@
       <c r="W28" s="1" t="s">
         <v>3953</v>
       </c>
-    </row>
-    <row r="29" spans="3:23">
+      <c r="Y28" s="1" t="s">
+        <v>4013</v>
+      </c>
+    </row>
+    <row r="29" spans="3:25">
       <c r="D29" s="1" t="s">
         <v>590</v>
       </c>
@@ -24874,8 +25057,11 @@
       <c r="W29" s="1" t="s">
         <v>3954</v>
       </c>
-    </row>
-    <row r="30" spans="3:23">
+      <c r="Y29" s="1" t="s">
+        <v>4014</v>
+      </c>
+    </row>
+    <row r="30" spans="3:25">
       <c r="D30" s="1" t="s">
         <v>591</v>
       </c>
@@ -24927,8 +25113,11 @@
       <c r="W30" s="1" t="s">
         <v>3955</v>
       </c>
-    </row>
-    <row r="31" spans="3:23">
+      <c r="Y30" s="1" t="s">
+        <v>4015</v>
+      </c>
+    </row>
+    <row r="31" spans="3:25">
       <c r="D31" s="1" t="s">
         <v>592</v>
       </c>
@@ -24980,8 +25169,11 @@
       <c r="W31" s="1" t="s">
         <v>3956</v>
       </c>
-    </row>
-    <row r="32" spans="3:23">
+      <c r="Y31" s="1" t="s">
+        <v>4016</v>
+      </c>
+    </row>
+    <row r="32" spans="3:25">
       <c r="D32" s="1" t="s">
         <v>593</v>
       </c>
@@ -25033,8 +25225,11 @@
       <c r="W32" s="1" t="s">
         <v>3957</v>
       </c>
-    </row>
-    <row r="33" spans="4:23">
+      <c r="Y32" s="1" t="s">
+        <v>4017</v>
+      </c>
+    </row>
+    <row r="33" spans="4:25">
       <c r="D33" s="1" t="s">
         <v>594</v>
       </c>
@@ -25086,8 +25281,11 @@
       <c r="W33" s="1" t="s">
         <v>3958</v>
       </c>
-    </row>
-    <row r="34" spans="4:23">
+      <c r="Y33" s="1" t="s">
+        <v>4018</v>
+      </c>
+    </row>
+    <row r="34" spans="4:25">
       <c r="D34" s="1" t="s">
         <v>595</v>
       </c>
@@ -25139,8 +25337,11 @@
       <c r="W34" s="1" t="s">
         <v>3959</v>
       </c>
-    </row>
-    <row r="35" spans="4:23">
+      <c r="Y34" s="1" t="s">
+        <v>4019</v>
+      </c>
+    </row>
+    <row r="35" spans="4:25">
       <c r="D35" s="1" t="s">
         <v>596</v>
       </c>
@@ -25193,7 +25394,7 @@
         <v>3960</v>
       </c>
     </row>
-    <row r="36" spans="4:23">
+    <row r="36" spans="4:25">
       <c r="D36" s="1" t="s">
         <v>597</v>
       </c>
@@ -25246,7 +25447,7 @@
         <v>3961</v>
       </c>
     </row>
-    <row r="37" spans="4:23">
+    <row r="37" spans="4:25">
       <c r="D37" s="1" t="s">
         <v>598</v>
       </c>
@@ -25299,7 +25500,7 @@
         <v>3962</v>
       </c>
     </row>
-    <row r="38" spans="4:23">
+    <row r="38" spans="4:25">
       <c r="D38" s="1" t="s">
         <v>599</v>
       </c>
@@ -25352,7 +25553,7 @@
         <v>3963</v>
       </c>
     </row>
-    <row r="39" spans="4:23">
+    <row r="39" spans="4:25">
       <c r="D39" s="1" t="s">
         <v>600</v>
       </c>
@@ -25405,7 +25606,7 @@
         <v>3964</v>
       </c>
     </row>
-    <row r="40" spans="4:23">
+    <row r="40" spans="4:25">
       <c r="D40" s="1" t="s">
         <v>601</v>
       </c>
@@ -25458,7 +25659,7 @@
         <v>3965</v>
       </c>
     </row>
-    <row r="41" spans="4:23">
+    <row r="41" spans="4:25">
       <c r="D41" s="1" t="s">
         <v>602</v>
       </c>
@@ -25511,7 +25712,7 @@
         <v>3966</v>
       </c>
     </row>
-    <row r="42" spans="4:23">
+    <row r="42" spans="4:25">
       <c r="D42" s="1" t="s">
         <v>603</v>
       </c>
@@ -25564,7 +25765,7 @@
         <v>3967</v>
       </c>
     </row>
-    <row r="43" spans="4:23">
+    <row r="43" spans="4:25">
       <c r="D43" s="1" t="s">
         <v>604</v>
       </c>
@@ -25617,7 +25818,7 @@
         <v>3968</v>
       </c>
     </row>
-    <row r="44" spans="4:23">
+    <row r="44" spans="4:25">
       <c r="D44" s="1" t="s">
         <v>605</v>
       </c>
@@ -25670,7 +25871,7 @@
         <v>3969</v>
       </c>
     </row>
-    <row r="45" spans="4:23">
+    <row r="45" spans="4:25">
       <c r="D45" s="1" t="s">
         <v>606</v>
       </c>
@@ -25723,7 +25924,7 @@
         <v>3970</v>
       </c>
     </row>
-    <row r="46" spans="4:23">
+    <row r="46" spans="4:25">
       <c r="D46" s="1" t="s">
         <v>607</v>
       </c>
@@ -25776,7 +25977,7 @@
         <v>3971</v>
       </c>
     </row>
-    <row r="47" spans="4:23">
+    <row r="47" spans="4:25">
       <c r="D47" s="1" t="s">
         <v>608</v>
       </c>
@@ -25829,7 +26030,7 @@
         <v>3972</v>
       </c>
     </row>
-    <row r="48" spans="4:23">
+    <row r="48" spans="4:25">
       <c r="D48" s="1" t="s">
         <v>609</v>
       </c>

--- a/Autostockin/ยิงรับ 49.xlsx
+++ b/Autostockin/ยิงรับ 49.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25427"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Workstuff\my-work-python-script\Autostockin\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E27C8EE1-E2E7-4762-989A-428ECBB22ABD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E14C2045-C914-4682-870A-FAC7E3F4D724}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13425" yWindow="2265" windowWidth="21600" windowHeight="11295" activeTab="1" xr2:uid="{47EFCF22-5A4D-4004-9D3D-F4E18B203E38}"/>
+    <workbookView xWindow="14895" yWindow="3105" windowWidth="21600" windowHeight="11295" xr2:uid="{47EFCF22-5A4D-4004-9D3D-F4E18B203E38}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5494" uniqueCount="4092">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5542" uniqueCount="4139">
   <si>
     <t xml:space="preserve">Bill Type: </t>
   </si>
@@ -12259,9 +12259,6 @@
     <t>+12435-314</t>
   </si>
   <si>
-    <t>+14911-639</t>
-  </si>
-  <si>
     <t>+32656-179</t>
   </si>
   <si>
@@ -12314,6 +12311,150 @@
   </si>
   <si>
     <t>7/9/2022</t>
+  </si>
+  <si>
+    <t>+1495-599</t>
+  </si>
+  <si>
+    <t>+349-1548</t>
+  </si>
+  <si>
+    <t>+9005-374</t>
+  </si>
+  <si>
+    <t>+15325-172</t>
+  </si>
+  <si>
+    <t>+17760-111</t>
+  </si>
+  <si>
+    <t>+7809-363</t>
+  </si>
+  <si>
+    <t>+742-1415</t>
+  </si>
+  <si>
+    <t>+703-2124</t>
+  </si>
+  <si>
+    <t>+560-1487</t>
+  </si>
+  <si>
+    <t>+6582-652</t>
+  </si>
+  <si>
+    <t>+1659-1466</t>
+  </si>
+  <si>
+    <t>+3466-1088</t>
+  </si>
+  <si>
+    <t>+2495-1047</t>
+  </si>
+  <si>
+    <t>7930-301</t>
+  </si>
+  <si>
+    <t>+500-1336</t>
+  </si>
+  <si>
+    <t>+0083-1713</t>
+  </si>
+  <si>
+    <t>+2546-1074</t>
+  </si>
+  <si>
+    <t>+885-561</t>
+  </si>
+  <si>
+    <t>8759-213</t>
+  </si>
+  <si>
+    <t>+3066-712</t>
+  </si>
+  <si>
+    <t>+9522-245</t>
+  </si>
+  <si>
+    <t>+3661-696</t>
+  </si>
+  <si>
+    <t>+20421-104</t>
+  </si>
+  <si>
+    <t>+237-1705</t>
+  </si>
+  <si>
+    <t>+2998-672</t>
+  </si>
+  <si>
+    <t>+2287-778</t>
+  </si>
+  <si>
+    <t>+1023-578</t>
+  </si>
+  <si>
+    <t>+3495-719</t>
+  </si>
+  <si>
+    <t>+13443-398</t>
+  </si>
+  <si>
+    <t>+371-1454</t>
+  </si>
+  <si>
+    <t>+16250-216</t>
+  </si>
+  <si>
+    <t>+3215-851</t>
+  </si>
+  <si>
+    <t>+13895-293</t>
+  </si>
+  <si>
+    <t>+9006-374</t>
+  </si>
+  <si>
+    <t>+1024-578</t>
+  </si>
+  <si>
+    <t>+1022-578</t>
+  </si>
+  <si>
+    <t>+13893-293</t>
+  </si>
+  <si>
+    <t>+1025-578</t>
+  </si>
+  <si>
+    <t>+886-561</t>
+  </si>
+  <si>
+    <t>+13894-293</t>
+  </si>
+  <si>
+    <t>+19578-459</t>
+  </si>
+  <si>
+    <t>+19579-459</t>
+  </si>
+  <si>
+    <t>+930-1486</t>
+  </si>
+  <si>
+    <t>+6306-667</t>
+  </si>
+  <si>
+    <t>+887-561</t>
+  </si>
+  <si>
+    <t>+1496-599</t>
+  </si>
+  <si>
+    <t>+1021-578</t>
+  </si>
+  <si>
+    <t>8/9/2022</t>
   </si>
 </sst>
 </file>
@@ -12445,9 +12586,9 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{84C94ADF-716D-4164-A88B-241F7D8F7642}" name="Table4" displayName="Table4" ref="F1:Z1048576" totalsRowShown="0" headerRowDxfId="2">
-  <autoFilter ref="F1:Z1048576" xr:uid="{84C94ADF-716D-4164-A88B-241F7D8F7642}"/>
-  <tableColumns count="21">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{84C94ADF-716D-4164-A88B-241F7D8F7642}" name="Table4" displayName="Table4" ref="F1:AA1048576" totalsRowShown="0" headerRowDxfId="2">
+  <autoFilter ref="F1:AA1048576" xr:uid="{84C94ADF-716D-4164-A88B-241F7D8F7642}"/>
+  <tableColumns count="22">
     <tableColumn id="1" xr3:uid="{8CC83C9F-6728-44BD-8EB5-BFC3E4A54F48}" name="1/8/2022"/>
     <tableColumn id="2" xr3:uid="{A0803CD8-81C6-4668-8EAC-4D75AB9B8F12}" name="2/8/2022"/>
     <tableColumn id="3" xr3:uid="{03986A1E-8D81-40E4-A005-A541C6A93237}" name="3/8/2022"/>
@@ -12469,6 +12610,7 @@
     <tableColumn id="19" xr3:uid="{2E1F5F48-6A07-4FCE-B712-086463360E4A}" name="2/9/2022"/>
     <tableColumn id="20" xr3:uid="{8309D87E-4AC5-4475-9DF7-9067C11C301C}" name="5/9/2022"/>
     <tableColumn id="21" xr3:uid="{B3D5423B-074F-479A-A775-6A6F8D1F75CA}" name="7/9/2022"/>
+    <tableColumn id="22" xr3:uid="{B7751EF2-81C6-44FC-B36F-B250A2BFDFF7}" name="8/9/2022"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium5" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -12773,8 +12915,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B40E757-AF6D-418F-8CB6-C916F96CFF4A}">
   <dimension ref="A1:G108"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:A18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:A57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -12786,7 +12928,7 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
-        <v>4073</v>
+        <v>4081</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>540</v>
@@ -12804,129 +12946,310 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="1" t="s">
-        <v>4074</v>
+        <v>4082</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="1" t="s">
-        <v>4075</v>
+        <v>4083</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="1" t="s">
-        <v>4076</v>
+        <v>4084</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="1" t="s">
-        <v>4077</v>
+        <v>4085</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="1" t="s">
-        <v>4078</v>
+        <v>4086</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="1" t="s">
-        <v>4079</v>
+        <v>4087</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="1" t="s">
-        <v>4080</v>
+        <v>4088</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="1" t="s">
-        <v>4081</v>
+        <v>4089</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="1" t="s">
-        <v>4082</v>
+        <v>4091</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="1" t="s">
-        <v>4083</v>
+        <v>4092</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="1" t="s">
-        <v>4084</v>
+        <v>4093</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="1" t="s">
-        <v>4085</v>
+        <v>4094</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="1" t="s">
-        <v>4086</v>
+        <v>4095</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="1" t="s">
-        <v>4087</v>
+        <v>4096</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="1" t="s">
-        <v>4088</v>
+        <v>4097</v>
       </c>
     </row>
     <row r="17" spans="1:1">
       <c r="A17" s="1" t="s">
-        <v>4089</v>
+        <v>4098</v>
       </c>
     </row>
     <row r="18" spans="1:1">
       <c r="A18" s="1" t="s">
-        <v>4090</v>
-      </c>
-    </row>
-    <row r="51" spans="7:7">
+        <v>4099</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1">
+      <c r="A19" s="1" t="s">
+        <v>4100</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1">
+      <c r="A20" s="1" t="s">
+        <v>4101</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1">
+      <c r="A21" s="1" t="s">
+        <v>4102</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1">
+      <c r="A22" s="1" t="s">
+        <v>4103</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1">
+      <c r="A23" s="1" t="s">
+        <v>4104</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1">
+      <c r="A24" s="1" t="s">
+        <v>4105</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1">
+      <c r="A25" s="1" t="s">
+        <v>4106</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1">
+      <c r="A26" s="1" t="s">
+        <v>4107</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1">
+      <c r="A27" s="1" t="s">
+        <v>4108</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1">
+      <c r="A28" s="1" t="s">
+        <v>4109</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1">
+      <c r="A29" s="1" t="s">
+        <v>4110</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1">
+      <c r="A30" s="1" t="s">
+        <v>4111</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1">
+      <c r="A31" s="1" t="s">
+        <v>4112</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1">
+      <c r="A32" s="1" t="s">
+        <v>4113</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1">
+      <c r="A33" s="1" t="s">
+        <v>4114</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1">
+      <c r="A34" s="1" t="s">
+        <v>4115</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1">
+      <c r="A35" s="1" t="s">
+        <v>4116</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1">
+      <c r="A36" s="1" t="s">
+        <v>4117</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1">
+      <c r="A37" s="1" t="s">
+        <v>4118</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1">
+      <c r="A38" s="1" t="s">
+        <v>4119</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1">
+      <c r="A39" s="1" t="s">
+        <v>4120</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1">
+      <c r="A40" s="1" t="s">
+        <v>4121</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1">
+      <c r="A41" s="1" t="s">
+        <v>4122</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1">
+      <c r="A42" s="1" t="s">
+        <v>4097</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1">
+      <c r="A43" s="1" t="s">
+        <v>4123</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1">
+      <c r="A44" s="1" t="s">
+        <v>4124</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1">
+      <c r="A45" s="1" t="s">
+        <v>4125</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1">
+      <c r="A46" s="1" t="s">
+        <v>4126</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1">
+      <c r="A47" s="1" t="s">
+        <v>4127</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1">
+      <c r="A48" s="1" t="s">
+        <v>4128</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7">
+      <c r="A49" s="1" t="s">
+        <v>4129</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7">
+      <c r="A50" s="1" t="s">
+        <v>4130</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7">
+      <c r="A51" s="1" t="s">
+        <v>4131</v>
+      </c>
       <c r="G51" s="1"/>
     </row>
-    <row r="52" spans="7:7">
+    <row r="52" spans="1:7">
+      <c r="A52" s="1" t="s">
+        <v>4132</v>
+      </c>
       <c r="G52" s="1"/>
     </row>
-    <row r="53" spans="7:7">
+    <row r="53" spans="1:7">
+      <c r="A53" s="1" t="s">
+        <v>4133</v>
+      </c>
       <c r="G53" s="1"/>
     </row>
-    <row r="54" spans="7:7">
+    <row r="54" spans="1:7">
+      <c r="A54" s="1" t="s">
+        <v>4134</v>
+      </c>
       <c r="G54" s="1"/>
     </row>
-    <row r="55" spans="7:7">
+    <row r="55" spans="1:7">
+      <c r="A55" s="1" t="s">
+        <v>4135</v>
+      </c>
       <c r="G55" s="1"/>
     </row>
-    <row r="56" spans="7:7">
+    <row r="56" spans="1:7">
+      <c r="A56" s="1" t="s">
+        <v>4136</v>
+      </c>
       <c r="G56" s="1"/>
     </row>
-    <row r="57" spans="7:7">
+    <row r="57" spans="1:7">
+      <c r="A57" s="1" t="s">
+        <v>4137</v>
+      </c>
       <c r="G57" s="1"/>
     </row>
-    <row r="58" spans="7:7">
+    <row r="58" spans="1:7">
       <c r="G58" s="1"/>
     </row>
-    <row r="59" spans="7:7">
+    <row r="59" spans="1:7">
       <c r="G59" s="1"/>
     </row>
-    <row r="60" spans="7:7">
+    <row r="60" spans="1:7">
       <c r="G60" s="1"/>
     </row>
-    <row r="61" spans="7:7">
+    <row r="61" spans="1:7">
       <c r="G61" s="1"/>
     </row>
-    <row r="62" spans="7:7">
+    <row r="62" spans="1:7">
       <c r="G62" s="1"/>
     </row>
-    <row r="63" spans="7:7">
+    <row r="63" spans="1:7">
       <c r="G63" s="1"/>
     </row>
-    <row r="64" spans="7:7">
+    <row r="64" spans="1:7">
       <c r="G64" s="1"/>
     </row>
     <row r="65" spans="7:7">
@@ -13061,8 +13384,8 @@
   </sheetData>
   <autoFilter ref="C1:E249" xr:uid="{1B40E757-AF6D-418F-8CB6-C916F96CFF4A}"/>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="A51:A1048576 A11:A18">
-    <cfRule type="duplicateValues" dxfId="0" priority="23"/>
+  <conditionalFormatting sqref="A2:A9 A66:A1048576 A43:A57">
+    <cfRule type="duplicateValues" dxfId="1" priority="23"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="167" orientation="portrait" horizontalDpi="180" verticalDpi="180" r:id="rId1"/>
@@ -13083,10 +13406,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{37C21679-A84C-4371-A1C5-AF880A10BEAA}">
-  <dimension ref="C1:Z491"/>
+  <dimension ref="C1:AA491"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="P1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="Z2" sqref="Z2"/>
+    <sheetView topLeftCell="P1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="AA10" sqref="AA10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -13098,7 +13421,7 @@
     <col min="24" max="25" width="10.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="3:26">
+    <row r="1" spans="3:27">
       <c r="C1" s="4" t="s">
         <v>4019</v>
       </c>
@@ -13169,10 +13492,13 @@
         <v>4040</v>
       </c>
       <c r="Z1" s="4" t="s">
-        <v>4091</v>
-      </c>
-    </row>
-    <row r="2" spans="3:26">
+        <v>4090</v>
+      </c>
+      <c r="AA1" s="4" t="s">
+        <v>4138</v>
+      </c>
+    </row>
+    <row r="2" spans="3:27">
       <c r="C2" s="1" t="s">
         <v>541</v>
       </c>
@@ -13245,8 +13571,11 @@
       <c r="Z2" s="1" t="s">
         <v>4041</v>
       </c>
-    </row>
-    <row r="3" spans="3:26">
+      <c r="AA2" s="1" t="s">
+        <v>4073</v>
+      </c>
+    </row>
+    <row r="3" spans="3:27">
       <c r="C3" s="1" t="s">
         <v>542</v>
       </c>
@@ -13319,8 +13648,11 @@
       <c r="Z3" s="1" t="s">
         <v>4042</v>
       </c>
-    </row>
-    <row r="4" spans="3:26">
+      <c r="AA3" s="1" t="s">
+        <v>4074</v>
+      </c>
+    </row>
+    <row r="4" spans="3:27">
       <c r="C4" s="1" t="s">
         <v>543</v>
       </c>
@@ -13393,8 +13725,11 @@
       <c r="Z4" s="1" t="s">
         <v>4043</v>
       </c>
-    </row>
-    <row r="5" spans="3:26">
+      <c r="AA4" s="1" t="s">
+        <v>4075</v>
+      </c>
+    </row>
+    <row r="5" spans="3:27">
       <c r="C5" s="1" t="s">
         <v>544</v>
       </c>
@@ -13464,8 +13799,11 @@
       <c r="Z5" s="1" t="s">
         <v>4044</v>
       </c>
-    </row>
-    <row r="6" spans="3:26">
+      <c r="AA5" s="1" t="s">
+        <v>4076</v>
+      </c>
+    </row>
+    <row r="6" spans="3:27">
       <c r="C6" s="1" t="s">
         <v>545</v>
       </c>
@@ -13535,8 +13873,11 @@
       <c r="Z6" s="1" t="s">
         <v>4045</v>
       </c>
-    </row>
-    <row r="7" spans="3:26">
+      <c r="AA6" s="1" t="s">
+        <v>4077</v>
+      </c>
+    </row>
+    <row r="7" spans="3:27">
       <c r="C7" s="1" t="s">
         <v>546</v>
       </c>
@@ -13606,8 +13947,11 @@
       <c r="Z7" s="1" t="s">
         <v>4046</v>
       </c>
-    </row>
-    <row r="8" spans="3:26">
+      <c r="AA7" s="1" t="s">
+        <v>4078</v>
+      </c>
+    </row>
+    <row r="8" spans="3:27">
       <c r="C8" s="1" t="s">
         <v>547</v>
       </c>
@@ -13677,8 +14021,11 @@
       <c r="Z8" s="1" t="s">
         <v>4047</v>
       </c>
-    </row>
-    <row r="9" spans="3:26">
+      <c r="AA8" s="1" t="s">
+        <v>4079</v>
+      </c>
+    </row>
+    <row r="9" spans="3:27">
       <c r="C9" s="1" t="s">
         <v>548</v>
       </c>
@@ -13748,8 +14095,11 @@
       <c r="Z9" s="1" t="s">
         <v>4048</v>
       </c>
-    </row>
-    <row r="10" spans="3:26">
+      <c r="AA9" s="1" t="s">
+        <v>4080</v>
+      </c>
+    </row>
+    <row r="10" spans="3:27">
       <c r="C10" s="1" t="s">
         <v>549</v>
       </c>
@@ -13820,7 +14170,7 @@
         <v>4049</v>
       </c>
     </row>
-    <row r="11" spans="3:26">
+    <row r="11" spans="3:27">
       <c r="C11" s="1" t="s">
         <v>550</v>
       </c>
@@ -13891,7 +14241,7 @@
         <v>4050</v>
       </c>
     </row>
-    <row r="12" spans="3:26">
+    <row r="12" spans="3:27">
       <c r="C12" s="1" t="s">
         <v>551</v>
       </c>
@@ -13962,7 +14312,7 @@
         <v>4051</v>
       </c>
     </row>
-    <row r="13" spans="3:26">
+    <row r="13" spans="3:27">
       <c r="C13" s="1" t="s">
         <v>552</v>
       </c>
@@ -14033,7 +14383,7 @@
         <v>4052</v>
       </c>
     </row>
-    <row r="14" spans="3:26">
+    <row r="14" spans="3:27">
       <c r="C14" s="1" t="s">
         <v>553</v>
       </c>
@@ -14098,7 +14448,7 @@
         <v>4053</v>
       </c>
     </row>
-    <row r="15" spans="3:26">
+    <row r="15" spans="3:27">
       <c r="C15" s="1" t="s">
         <v>554</v>
       </c>
@@ -14163,7 +14513,7 @@
         <v>4054</v>
       </c>
     </row>
-    <row r="16" spans="3:26">
+    <row r="16" spans="3:27">
       <c r="C16" s="1" t="s">
         <v>555</v>
       </c>
@@ -24759,7 +25109,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="W8:W49">
-    <cfRule type="duplicateValues" dxfId="1" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="4">
@@ -24776,7 +25126,7 @@
   <dimension ref="A1:U159"/>
   <sheetViews>
     <sheetView topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="P10" sqref="P10"/>
+      <selection activeCell="Q8" sqref="Q8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
